--- a/allTest_DCE.xlsx
+++ b/allTest_DCE.xlsx
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3532" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3548" uniqueCount="131">
   <si>
     <t>tableName</t>
   </si>
@@ -4280,7 +4280,7 @@
         <v>121</v>
       </c>
       <c r="C2" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
@@ -4297,7 +4297,7 @@
         <v>121</v>
       </c>
       <c r="C3" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -4314,7 +4314,7 @@
         <v>121</v>
       </c>
       <c r="C4" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -4331,7 +4331,7 @@
         <v>121</v>
       </c>
       <c r="C5" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -4348,7 +4348,7 @@
         <v>121</v>
       </c>
       <c r="C6" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -4365,7 +4365,7 @@
         <v>121</v>
       </c>
       <c r="C7" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D7" t="s">
         <v>26</v>
@@ -4382,7 +4382,7 @@
         <v>121</v>
       </c>
       <c r="C8" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D8" t="s">
         <v>26</v>
@@ -4410,7 +4410,7 @@
         <v>121</v>
       </c>
       <c r="C10" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
@@ -4427,7 +4427,7 @@
         <v>121</v>
       </c>
       <c r="C11" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -4444,7 +4444,7 @@
         <v>121</v>
       </c>
       <c r="C12" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
@@ -4460,8 +4460,14 @@
       <c r="B13" t="s">
         <v>121</v>
       </c>
+      <c r="C13" s="2">
+        <v>44623</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
       <c r="E13">
-        <v>0</v>
+        <v>53046</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4472,7 +4478,7 @@
         <v>121</v>
       </c>
       <c r="C14" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D14" t="s">
         <v>26</v>
@@ -4489,7 +4495,7 @@
         <v>121</v>
       </c>
       <c r="C15" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
@@ -4506,7 +4512,7 @@
         <v>121</v>
       </c>
       <c r="C16" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
@@ -4523,7 +4529,7 @@
         <v>121</v>
       </c>
       <c r="C17" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D17" t="s">
         <v>26</v>
@@ -4540,7 +4546,7 @@
         <v>121</v>
       </c>
       <c r="C18" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D18" t="s">
         <v>26</v>
@@ -4557,7 +4563,7 @@
         <v>121</v>
       </c>
       <c r="C19" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D19" t="s">
         <v>26</v>
@@ -4574,7 +4580,7 @@
         <v>121</v>
       </c>
       <c r="C20" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D20" t="s">
         <v>26</v>
@@ -4591,7 +4597,7 @@
         <v>121</v>
       </c>
       <c r="C21" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D21" t="s">
         <v>26</v>
@@ -4653,7 +4659,7 @@
         <v>121</v>
       </c>
       <c r="C2" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
@@ -4679,7 +4685,7 @@
         <v>121</v>
       </c>
       <c r="C3" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -4705,7 +4711,7 @@
         <v>121</v>
       </c>
       <c r="C4" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -4731,7 +4737,7 @@
         <v>121</v>
       </c>
       <c r="C5" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -4757,7 +4763,7 @@
         <v>121</v>
       </c>
       <c r="C6" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -4783,7 +4789,7 @@
         <v>121</v>
       </c>
       <c r="C7" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D7" t="s">
         <v>26</v>
@@ -4809,7 +4815,7 @@
         <v>121</v>
       </c>
       <c r="C8" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D8" t="s">
         <v>26</v>
@@ -4855,7 +4861,7 @@
         <v>121</v>
       </c>
       <c r="C10" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
@@ -4881,7 +4887,7 @@
         <v>121</v>
       </c>
       <c r="C11" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -4907,7 +4913,7 @@
         <v>121</v>
       </c>
       <c r="C12" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
@@ -4932,8 +4938,14 @@
       <c r="B13" t="s">
         <v>121</v>
       </c>
+      <c r="C13" s="2">
+        <v>44623</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
       <c r="E13">
-        <v>0</v>
+        <v>53046</v>
       </c>
       <c r="F13" t="s">
         <v>122</v>
@@ -4942,7 +4954,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>53046</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -4953,7 +4965,7 @@
         <v>121</v>
       </c>
       <c r="C14" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D14" t="s">
         <v>26</v>
@@ -4979,7 +4991,7 @@
         <v>121</v>
       </c>
       <c r="C15" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
@@ -5005,7 +5017,7 @@
         <v>121</v>
       </c>
       <c r="C16" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
@@ -5031,7 +5043,7 @@
         <v>121</v>
       </c>
       <c r="C17" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D17" t="s">
         <v>26</v>
@@ -5057,7 +5069,7 @@
         <v>121</v>
       </c>
       <c r="C18" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D18" t="s">
         <v>26</v>
@@ -5083,7 +5095,7 @@
         <v>121</v>
       </c>
       <c r="C19" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D19" t="s">
         <v>26</v>
@@ -5109,7 +5121,7 @@
         <v>121</v>
       </c>
       <c r="C20" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D20" t="s">
         <v>26</v>
@@ -5135,7 +5147,7 @@
         <v>121</v>
       </c>
       <c r="C21" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D21" t="s">
         <v>26</v>
@@ -6547,13 +6559,13 @@
         <v>121</v>
       </c>
       <c r="C31" s="2">
-        <v>44617</v>
+        <v>44623</v>
       </c>
       <c r="D31" t="s">
         <v>78</v>
       </c>
       <c r="E31">
-        <v>2526</v>
+        <v>1263</v>
       </c>
     </row>
   </sheetData>
@@ -7267,13 +7279,13 @@
         <v>121</v>
       </c>
       <c r="C31" s="2">
-        <v>44617</v>
+        <v>44623</v>
       </c>
       <c r="D31" t="s">
         <v>78</v>
       </c>
       <c r="E31">
-        <v>2526</v>
+        <v>1263</v>
       </c>
       <c r="F31" t="s">
         <v>122</v>
@@ -7282,7 +7294,7 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>2526</v>
+        <v>1263</v>
       </c>
     </row>
   </sheetData>
@@ -7971,7 +7983,7 @@
         <v>123</v>
       </c>
       <c r="C2" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
@@ -7988,7 +8000,7 @@
         <v>123</v>
       </c>
       <c r="C3" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -8005,7 +8017,7 @@
         <v>123</v>
       </c>
       <c r="C4" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -8022,7 +8034,7 @@
         <v>123</v>
       </c>
       <c r="C5" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -8039,7 +8051,7 @@
         <v>123</v>
       </c>
       <c r="C6" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -8056,7 +8068,7 @@
         <v>123</v>
       </c>
       <c r="C7" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D7" t="s">
         <v>26</v>
@@ -8073,7 +8085,7 @@
         <v>123</v>
       </c>
       <c r="C8" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D8" t="s">
         <v>26</v>
@@ -8101,7 +8113,7 @@
         <v>123</v>
       </c>
       <c r="C10" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
@@ -8118,7 +8130,7 @@
         <v>123</v>
       </c>
       <c r="C11" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -8135,7 +8147,7 @@
         <v>123</v>
       </c>
       <c r="C12" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
@@ -8151,8 +8163,14 @@
       <c r="B13" t="s">
         <v>123</v>
       </c>
+      <c r="C13" s="2">
+        <v>44623</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
       <c r="E13">
-        <v>0</v>
+        <v>47922</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -8163,7 +8181,7 @@
         <v>123</v>
       </c>
       <c r="C14" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D14" t="s">
         <v>26</v>
@@ -8180,7 +8198,7 @@
         <v>123</v>
       </c>
       <c r="C15" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
@@ -8197,7 +8215,7 @@
         <v>123</v>
       </c>
       <c r="C16" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
@@ -8214,7 +8232,7 @@
         <v>123</v>
       </c>
       <c r="C17" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D17" t="s">
         <v>26</v>
@@ -8231,7 +8249,7 @@
         <v>123</v>
       </c>
       <c r="C18" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D18" t="s">
         <v>26</v>
@@ -8248,7 +8266,7 @@
         <v>123</v>
       </c>
       <c r="C19" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D19" t="s">
         <v>26</v>
@@ -8265,7 +8283,7 @@
         <v>123</v>
       </c>
       <c r="C20" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D20" t="s">
         <v>26</v>
@@ -8282,7 +8300,7 @@
         <v>123</v>
       </c>
       <c r="C21" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D21" t="s">
         <v>26</v>
@@ -8344,7 +8362,7 @@
         <v>123</v>
       </c>
       <c r="C2" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
@@ -8370,7 +8388,7 @@
         <v>123</v>
       </c>
       <c r="C3" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -8396,7 +8414,7 @@
         <v>123</v>
       </c>
       <c r="C4" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -8422,7 +8440,7 @@
         <v>123</v>
       </c>
       <c r="C5" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -8448,7 +8466,7 @@
         <v>123</v>
       </c>
       <c r="C6" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -8474,7 +8492,7 @@
         <v>123</v>
       </c>
       <c r="C7" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D7" t="s">
         <v>26</v>
@@ -8500,7 +8518,7 @@
         <v>123</v>
       </c>
       <c r="C8" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D8" t="s">
         <v>26</v>
@@ -8546,7 +8564,7 @@
         <v>123</v>
       </c>
       <c r="C10" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
@@ -8572,7 +8590,7 @@
         <v>123</v>
       </c>
       <c r="C11" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -8598,7 +8616,7 @@
         <v>123</v>
       </c>
       <c r="C12" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
@@ -8623,8 +8641,14 @@
       <c r="B13" t="s">
         <v>123</v>
       </c>
+      <c r="C13" s="2">
+        <v>44623</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
       <c r="E13">
-        <v>0</v>
+        <v>47922</v>
       </c>
       <c r="F13" t="s">
         <v>124</v>
@@ -8633,7 +8657,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>47922</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -8644,7 +8668,7 @@
         <v>123</v>
       </c>
       <c r="C14" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D14" t="s">
         <v>26</v>
@@ -8670,7 +8694,7 @@
         <v>123</v>
       </c>
       <c r="C15" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
@@ -8696,7 +8720,7 @@
         <v>123</v>
       </c>
       <c r="C16" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
@@ -8722,7 +8746,7 @@
         <v>123</v>
       </c>
       <c r="C17" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D17" t="s">
         <v>26</v>
@@ -8748,7 +8772,7 @@
         <v>123</v>
       </c>
       <c r="C18" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D18" t="s">
         <v>26</v>
@@ -8774,7 +8798,7 @@
         <v>123</v>
       </c>
       <c r="C19" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D19" t="s">
         <v>26</v>
@@ -8800,7 +8824,7 @@
         <v>123</v>
       </c>
       <c r="C20" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D20" t="s">
         <v>26</v>
@@ -8826,7 +8850,7 @@
         <v>123</v>
       </c>
       <c r="C21" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D21" t="s">
         <v>26</v>
@@ -9565,13 +9589,13 @@
         <v>123</v>
       </c>
       <c r="C31" s="2">
-        <v>44617</v>
+        <v>44623</v>
       </c>
       <c r="D31" t="s">
         <v>78</v>
       </c>
       <c r="E31">
-        <v>2282</v>
+        <v>1141</v>
       </c>
     </row>
   </sheetData>
@@ -10538,13 +10562,13 @@
         <v>123</v>
       </c>
       <c r="C31" s="2">
-        <v>44617</v>
+        <v>44623</v>
       </c>
       <c r="D31" t="s">
         <v>78</v>
       </c>
       <c r="E31">
-        <v>2282</v>
+        <v>1141</v>
       </c>
       <c r="F31" t="s">
         <v>124</v>
@@ -10553,7 +10577,7 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>2282</v>
+        <v>1141</v>
       </c>
     </row>
   </sheetData>
@@ -11242,7 +11266,7 @@
         <v>125</v>
       </c>
       <c r="C2" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
@@ -11259,7 +11283,7 @@
         <v>125</v>
       </c>
       <c r="C3" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -11276,7 +11300,7 @@
         <v>125</v>
       </c>
       <c r="C4" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -11293,7 +11317,7 @@
         <v>125</v>
       </c>
       <c r="C5" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -11310,7 +11334,7 @@
         <v>125</v>
       </c>
       <c r="C6" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -11327,7 +11351,7 @@
         <v>125</v>
       </c>
       <c r="C7" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D7" t="s">
         <v>26</v>
@@ -11344,7 +11368,7 @@
         <v>125</v>
       </c>
       <c r="C8" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D8" t="s">
         <v>26</v>
@@ -11372,7 +11396,7 @@
         <v>125</v>
       </c>
       <c r="C10" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
@@ -11389,7 +11413,7 @@
         <v>125</v>
       </c>
       <c r="C11" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -11406,7 +11430,7 @@
         <v>125</v>
       </c>
       <c r="C12" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
@@ -11422,8 +11446,14 @@
       <c r="B13" t="s">
         <v>125</v>
       </c>
+      <c r="C13" s="2">
+        <v>44623</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
       <c r="E13">
-        <v>0</v>
+        <v>155736</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -11434,7 +11464,7 @@
         <v>125</v>
       </c>
       <c r="C14" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D14" t="s">
         <v>26</v>
@@ -11451,7 +11481,7 @@
         <v>125</v>
       </c>
       <c r="C15" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
@@ -11468,7 +11498,7 @@
         <v>125</v>
       </c>
       <c r="C16" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
@@ -11485,7 +11515,7 @@
         <v>125</v>
       </c>
       <c r="C17" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D17" t="s">
         <v>26</v>
@@ -11502,7 +11532,7 @@
         <v>125</v>
       </c>
       <c r="C18" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D18" t="s">
         <v>26</v>
@@ -11519,7 +11549,7 @@
         <v>125</v>
       </c>
       <c r="C19" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D19" t="s">
         <v>26</v>
@@ -11536,7 +11566,7 @@
         <v>125</v>
       </c>
       <c r="C20" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D20" t="s">
         <v>26</v>
@@ -11553,7 +11583,7 @@
         <v>125</v>
       </c>
       <c r="C21" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D21" t="s">
         <v>26</v>
@@ -11615,7 +11645,7 @@
         <v>125</v>
       </c>
       <c r="C2" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
@@ -11641,7 +11671,7 @@
         <v>125</v>
       </c>
       <c r="C3" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -11667,7 +11697,7 @@
         <v>125</v>
       </c>
       <c r="C4" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -11693,7 +11723,7 @@
         <v>125</v>
       </c>
       <c r="C5" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -11719,7 +11749,7 @@
         <v>125</v>
       </c>
       <c r="C6" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -11745,7 +11775,7 @@
         <v>125</v>
       </c>
       <c r="C7" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D7" t="s">
         <v>26</v>
@@ -11771,7 +11801,7 @@
         <v>125</v>
       </c>
       <c r="C8" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D8" t="s">
         <v>26</v>
@@ -11817,7 +11847,7 @@
         <v>125</v>
       </c>
       <c r="C10" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
@@ -11843,7 +11873,7 @@
         <v>125</v>
       </c>
       <c r="C11" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -11869,7 +11899,7 @@
         <v>125</v>
       </c>
       <c r="C12" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
@@ -11894,8 +11924,14 @@
       <c r="B13" t="s">
         <v>125</v>
       </c>
+      <c r="C13" s="2">
+        <v>44623</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
       <c r="E13">
-        <v>0</v>
+        <v>155736</v>
       </c>
       <c r="F13" t="s">
         <v>126</v>
@@ -11904,7 +11940,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>155736</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -11915,7 +11951,7 @@
         <v>125</v>
       </c>
       <c r="C14" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D14" t="s">
         <v>26</v>
@@ -11941,7 +11977,7 @@
         <v>125</v>
       </c>
       <c r="C15" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
@@ -11967,7 +12003,7 @@
         <v>125</v>
       </c>
       <c r="C16" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
@@ -11993,7 +12029,7 @@
         <v>125</v>
       </c>
       <c r="C17" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D17" t="s">
         <v>26</v>
@@ -12019,7 +12055,7 @@
         <v>125</v>
       </c>
       <c r="C18" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D18" t="s">
         <v>26</v>
@@ -12045,7 +12081,7 @@
         <v>125</v>
       </c>
       <c r="C19" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D19" t="s">
         <v>26</v>
@@ -12071,7 +12107,7 @@
         <v>125</v>
       </c>
       <c r="C20" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D20" t="s">
         <v>26</v>
@@ -12097,7 +12133,7 @@
         <v>125</v>
       </c>
       <c r="C21" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D21" t="s">
         <v>26</v>
@@ -12835,8 +12871,14 @@
       <c r="B31" t="s">
         <v>125</v>
       </c>
+      <c r="C31" s="2">
+        <v>44623</v>
+      </c>
+      <c r="D31" t="s">
+        <v>78</v>
+      </c>
       <c r="E31">
-        <v>0</v>
+        <v>3708</v>
       </c>
     </row>
   </sheetData>
@@ -13549,8 +13591,14 @@
       <c r="B31" t="s">
         <v>125</v>
       </c>
+      <c r="C31" s="2">
+        <v>44623</v>
+      </c>
+      <c r="D31" t="s">
+        <v>78</v>
+      </c>
       <c r="E31">
-        <v>0</v>
+        <v>3708</v>
       </c>
       <c r="F31" t="s">
         <v>126</v>
@@ -13559,7 +13607,7 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>3708</v>
       </c>
     </row>
   </sheetData>
@@ -14281,7 +14329,7 @@
         <v>127</v>
       </c>
       <c r="C2" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
@@ -14298,7 +14346,7 @@
         <v>127</v>
       </c>
       <c r="C3" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -14315,7 +14363,7 @@
         <v>127</v>
       </c>
       <c r="C4" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -14332,7 +14380,7 @@
         <v>127</v>
       </c>
       <c r="C5" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -14349,7 +14397,7 @@
         <v>127</v>
       </c>
       <c r="C6" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -14366,7 +14414,7 @@
         <v>127</v>
       </c>
       <c r="C7" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D7" t="s">
         <v>26</v>
@@ -14383,7 +14431,7 @@
         <v>127</v>
       </c>
       <c r="C8" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D8" t="s">
         <v>26</v>
@@ -14411,7 +14459,7 @@
         <v>127</v>
       </c>
       <c r="C10" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
@@ -14428,7 +14476,7 @@
         <v>127</v>
       </c>
       <c r="C11" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -14445,7 +14493,7 @@
         <v>127</v>
       </c>
       <c r="C12" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
@@ -14461,8 +14509,14 @@
       <c r="B13" t="s">
         <v>127</v>
       </c>
+      <c r="C13" s="2">
+        <v>44623</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
       <c r="E13">
-        <v>0</v>
+        <v>2109198</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -14473,7 +14527,7 @@
         <v>127</v>
       </c>
       <c r="C14" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D14" t="s">
         <v>26</v>
@@ -14490,7 +14544,7 @@
         <v>127</v>
       </c>
       <c r="C15" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
@@ -14507,7 +14561,7 @@
         <v>127</v>
       </c>
       <c r="C16" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
@@ -14524,7 +14578,7 @@
         <v>127</v>
       </c>
       <c r="C17" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D17" t="s">
         <v>26</v>
@@ -14541,7 +14595,7 @@
         <v>127</v>
       </c>
       <c r="C18" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D18" t="s">
         <v>26</v>
@@ -14557,8 +14611,14 @@
       <c r="B19" t="s">
         <v>127</v>
       </c>
+      <c r="C19" s="2">
+        <v>44623</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
       <c r="E19">
-        <v>0</v>
+        <v>374881</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -14569,7 +14629,7 @@
         <v>127</v>
       </c>
       <c r="C20" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D20" t="s">
         <v>26</v>
@@ -14586,7 +14646,7 @@
         <v>127</v>
       </c>
       <c r="C21" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D21" t="s">
         <v>26</v>
@@ -14648,7 +14708,7 @@
         <v>127</v>
       </c>
       <c r="C2" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
@@ -14674,7 +14734,7 @@
         <v>127</v>
       </c>
       <c r="C3" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -14700,7 +14760,7 @@
         <v>127</v>
       </c>
       <c r="C4" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -14726,7 +14786,7 @@
         <v>127</v>
       </c>
       <c r="C5" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -14752,7 +14812,7 @@
         <v>127</v>
       </c>
       <c r="C6" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -14778,7 +14838,7 @@
         <v>127</v>
       </c>
       <c r="C7" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D7" t="s">
         <v>26</v>
@@ -14804,7 +14864,7 @@
         <v>127</v>
       </c>
       <c r="C8" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D8" t="s">
         <v>26</v>
@@ -14850,7 +14910,7 @@
         <v>127</v>
       </c>
       <c r="C10" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
@@ -14876,7 +14936,7 @@
         <v>127</v>
       </c>
       <c r="C11" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -14902,7 +14962,7 @@
         <v>127</v>
       </c>
       <c r="C12" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
@@ -14927,8 +14987,14 @@
       <c r="B13" t="s">
         <v>127</v>
       </c>
+      <c r="C13" s="2">
+        <v>44623</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
       <c r="E13">
-        <v>0</v>
+        <v>2109198</v>
       </c>
       <c r="F13" t="s">
         <v>128</v>
@@ -14937,7 +15003,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>2109198</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -14948,7 +15014,7 @@
         <v>127</v>
       </c>
       <c r="C14" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D14" t="s">
         <v>26</v>
@@ -14974,7 +15040,7 @@
         <v>127</v>
       </c>
       <c r="C15" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
@@ -15000,7 +15066,7 @@
         <v>127</v>
       </c>
       <c r="C16" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
@@ -15026,7 +15092,7 @@
         <v>127</v>
       </c>
       <c r="C17" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D17" t="s">
         <v>26</v>
@@ -15052,7 +15118,7 @@
         <v>127</v>
       </c>
       <c r="C18" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D18" t="s">
         <v>26</v>
@@ -15077,8 +15143,14 @@
       <c r="B19" t="s">
         <v>127</v>
       </c>
+      <c r="C19" s="2">
+        <v>44623</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
       <c r="E19">
-        <v>0</v>
+        <v>374881</v>
       </c>
       <c r="F19" t="s">
         <v>128</v>
@@ -15087,7 +15159,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>374881</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -15098,7 +15170,7 @@
         <v>127</v>
       </c>
       <c r="C20" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D20" t="s">
         <v>26</v>
@@ -15124,7 +15196,7 @@
         <v>127</v>
       </c>
       <c r="C21" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D21" t="s">
         <v>26</v>
@@ -15363,8 +15435,11 @@
       <c r="B19" t="s">
         <v>127</v>
       </c>
+      <c r="C19">
+        <v>374875</v>
+      </c>
       <c r="D19">
-        <v>0</v>
+        <v>561</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -15860,13 +15935,13 @@
         <v>127</v>
       </c>
       <c r="C31" s="2">
-        <v>44617</v>
+        <v>44623</v>
       </c>
       <c r="D31" t="s">
         <v>78</v>
       </c>
       <c r="E31">
-        <v>100438</v>
+        <v>50219</v>
       </c>
     </row>
   </sheetData>
@@ -16580,13 +16655,13 @@
         <v>127</v>
       </c>
       <c r="C31" s="2">
-        <v>44617</v>
+        <v>44623</v>
       </c>
       <c r="D31" t="s">
         <v>78</v>
       </c>
       <c r="E31">
-        <v>100438</v>
+        <v>50219</v>
       </c>
       <c r="F31" t="s">
         <v>128</v>
@@ -16595,7 +16670,7 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>100438</v>
+        <v>50219</v>
       </c>
     </row>
   </sheetData>
@@ -17284,7 +17359,7 @@
         <v>129</v>
       </c>
       <c r="C2" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
@@ -17301,7 +17376,7 @@
         <v>129</v>
       </c>
       <c r="C3" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -17318,7 +17393,7 @@
         <v>129</v>
       </c>
       <c r="C4" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -17335,7 +17410,7 @@
         <v>129</v>
       </c>
       <c r="C5" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -17352,7 +17427,7 @@
         <v>129</v>
       </c>
       <c r="C6" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -17369,7 +17444,7 @@
         <v>129</v>
       </c>
       <c r="C7" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D7" t="s">
         <v>26</v>
@@ -17386,7 +17461,7 @@
         <v>129</v>
       </c>
       <c r="C8" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D8" t="s">
         <v>26</v>
@@ -17414,7 +17489,7 @@
         <v>129</v>
       </c>
       <c r="C10" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
@@ -17431,7 +17506,7 @@
         <v>129</v>
       </c>
       <c r="C11" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -17448,7 +17523,7 @@
         <v>129</v>
       </c>
       <c r="C12" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
@@ -17464,8 +17539,14 @@
       <c r="B13" t="s">
         <v>129</v>
       </c>
+      <c r="C13" s="2">
+        <v>44623</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
       <c r="E13">
-        <v>0</v>
+        <v>1753248</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -17476,7 +17557,7 @@
         <v>129</v>
       </c>
       <c r="C14" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D14" t="s">
         <v>26</v>
@@ -17493,7 +17574,7 @@
         <v>129</v>
       </c>
       <c r="C15" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
@@ -17510,7 +17591,7 @@
         <v>129</v>
       </c>
       <c r="C16" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
@@ -17527,7 +17608,7 @@
         <v>129</v>
       </c>
       <c r="C17" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D17" t="s">
         <v>26</v>
@@ -17560,8 +17641,14 @@
       <c r="B19" t="s">
         <v>129</v>
       </c>
+      <c r="C19" s="2">
+        <v>44623</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
       <c r="E19">
-        <v>0</v>
+        <v>308077</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -17572,7 +17659,7 @@
         <v>129</v>
       </c>
       <c r="C20" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D20" t="s">
         <v>26</v>
@@ -17589,7 +17676,7 @@
         <v>129</v>
       </c>
       <c r="C21" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D21" t="s">
         <v>26</v>
@@ -18101,7 +18188,7 @@
         <v>129</v>
       </c>
       <c r="C2" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
@@ -18127,7 +18214,7 @@
         <v>129</v>
       </c>
       <c r="C3" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -18153,7 +18240,7 @@
         <v>129</v>
       </c>
       <c r="C4" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -18179,7 +18266,7 @@
         <v>129</v>
       </c>
       <c r="C5" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -18205,7 +18292,7 @@
         <v>129</v>
       </c>
       <c r="C6" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -18231,7 +18318,7 @@
         <v>129</v>
       </c>
       <c r="C7" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D7" t="s">
         <v>26</v>
@@ -18257,7 +18344,7 @@
         <v>129</v>
       </c>
       <c r="C8" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D8" t="s">
         <v>26</v>
@@ -18303,7 +18390,7 @@
         <v>129</v>
       </c>
       <c r="C10" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
@@ -18329,7 +18416,7 @@
         <v>129</v>
       </c>
       <c r="C11" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -18355,7 +18442,7 @@
         <v>129</v>
       </c>
       <c r="C12" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
@@ -18380,8 +18467,14 @@
       <c r="B13" t="s">
         <v>129</v>
       </c>
+      <c r="C13" s="2">
+        <v>44623</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
       <c r="E13">
-        <v>0</v>
+        <v>1753248</v>
       </c>
       <c r="F13" t="s">
         <v>130</v>
@@ -18390,7 +18483,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1753248</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -18401,7 +18494,7 @@
         <v>129</v>
       </c>
       <c r="C14" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D14" t="s">
         <v>26</v>
@@ -18427,7 +18520,7 @@
         <v>129</v>
       </c>
       <c r="C15" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
@@ -18453,7 +18546,7 @@
         <v>129</v>
       </c>
       <c r="C16" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
@@ -18479,7 +18572,7 @@
         <v>129</v>
       </c>
       <c r="C17" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D17" t="s">
         <v>26</v>
@@ -18530,8 +18623,14 @@
       <c r="B19" t="s">
         <v>129</v>
       </c>
+      <c r="C19" s="2">
+        <v>44623</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
       <c r="E19">
-        <v>0</v>
+        <v>308077</v>
       </c>
       <c r="F19" t="s">
         <v>130</v>
@@ -18540,7 +18639,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>308077</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -18551,7 +18650,7 @@
         <v>129</v>
       </c>
       <c r="C20" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D20" t="s">
         <v>26</v>
@@ -18577,7 +18676,7 @@
         <v>129</v>
       </c>
       <c r="C21" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D21" t="s">
         <v>26</v>
@@ -18816,8 +18915,11 @@
       <c r="B19" t="s">
         <v>129</v>
       </c>
+      <c r="C19">
+        <v>308074</v>
+      </c>
       <c r="D19">
-        <v>0</v>
+        <v>569</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -19313,7 +19415,7 @@
         <v>129</v>
       </c>
       <c r="C31" s="2">
-        <v>44617</v>
+        <v>44623</v>
       </c>
       <c r="D31" t="s">
         <v>78</v>
@@ -20033,7 +20135,7 @@
         <v>129</v>
       </c>
       <c r="C31" s="2">
-        <v>44617</v>
+        <v>44623</v>
       </c>
       <c r="D31" t="s">
         <v>78</v>

--- a/allTest_DCE.xlsx
+++ b/allTest_DCE.xlsx
@@ -14,13 +14,20 @@
     <sheet name="odsCountMax dev_ilumedpi" sheetId="5" r:id="rId5"/>
     <sheet name="ccsCompare dev_ilumedpi" sheetId="6" r:id="rId6"/>
     <sheet name="dupODSchk dev_ilumedpi" sheetId="7" r:id="rId7"/>
+    <sheet name="insCountMax dev_bluerockdc" sheetId="8" r:id="rId8"/>
+    <sheet name="insCountMaxC dev_bluerockdc" sheetId="9" r:id="rId9"/>
+    <sheet name="dupInsCheck dev_bluerockdc" sheetId="10" r:id="rId10"/>
+    <sheet name="acoXdupMonth dev_bluerockdc" sheetId="11" r:id="rId11"/>
+    <sheet name="odsCountMax dev_bluerockdc" sheetId="12" r:id="rId12"/>
+    <sheet name="ccsCompare dev_bluerockdc" sheetId="13" r:id="rId13"/>
+    <sheet name="dupODSchk dev_bluerockdc" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="116">
   <si>
     <t>tableName</t>
   </si>
@@ -362,6 +369,12 @@
   </si>
   <si>
     <t>emr_chronic_condition_stroke_transient_ischemic_attack</t>
+  </si>
+  <si>
+    <t>DEV_BLUEROCKDC</t>
+  </si>
+  <si>
+    <t>DEV_BLUEROCKDC_FE</t>
   </si>
 </sst>
 </file>
@@ -754,7 +767,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="2">
-        <v>44634</v>
+        <v>44635</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
@@ -771,7 +784,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="2">
-        <v>44634</v>
+        <v>44635</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -788,7 +801,7 @@
         <v>25</v>
       </c>
       <c r="C4" s="2">
-        <v>44634</v>
+        <v>44635</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -805,7 +818,7 @@
         <v>25</v>
       </c>
       <c r="C5" s="2">
-        <v>44634</v>
+        <v>44635</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -822,7 +835,7 @@
         <v>25</v>
       </c>
       <c r="C6" s="2">
-        <v>44634</v>
+        <v>44635</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -839,13 +852,13 @@
         <v>25</v>
       </c>
       <c r="C7" s="2">
-        <v>44634</v>
+        <v>44635</v>
       </c>
       <c r="D7" t="s">
         <v>26</v>
       </c>
       <c r="E7">
-        <v>4232588</v>
+        <v>5029068</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -856,7 +869,7 @@
         <v>25</v>
       </c>
       <c r="C8" s="2">
-        <v>44634</v>
+        <v>44635</v>
       </c>
       <c r="D8" t="s">
         <v>26</v>
@@ -884,7 +897,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="2">
-        <v>44634</v>
+        <v>44635</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
@@ -901,7 +914,7 @@
         <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>44634</v>
+        <v>44635</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -918,7 +931,7 @@
         <v>25</v>
       </c>
       <c r="C12" s="2">
-        <v>44634</v>
+        <v>44635</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
@@ -935,7 +948,7 @@
         <v>25</v>
       </c>
       <c r="C13" s="2">
-        <v>44634</v>
+        <v>44635</v>
       </c>
       <c r="D13" t="s">
         <v>26</v>
@@ -952,7 +965,7 @@
         <v>25</v>
       </c>
       <c r="C14" s="2">
-        <v>44634</v>
+        <v>44635</v>
       </c>
       <c r="D14" t="s">
         <v>26</v>
@@ -969,7 +982,7 @@
         <v>25</v>
       </c>
       <c r="C15" s="2">
-        <v>44634</v>
+        <v>44635</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
@@ -986,7 +999,7 @@
         <v>25</v>
       </c>
       <c r="C16" s="2">
-        <v>44634</v>
+        <v>44635</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
@@ -1003,7 +1016,7 @@
         <v>25</v>
       </c>
       <c r="C17" s="2">
-        <v>44634</v>
+        <v>44635</v>
       </c>
       <c r="D17" t="s">
         <v>26</v>
@@ -1020,7 +1033,7 @@
         <v>25</v>
       </c>
       <c r="C18" s="2">
-        <v>44634</v>
+        <v>44635</v>
       </c>
       <c r="D18" t="s">
         <v>26</v>
@@ -1037,7 +1050,7 @@
         <v>25</v>
       </c>
       <c r="C19" s="2">
-        <v>44634</v>
+        <v>44635</v>
       </c>
       <c r="D19" t="s">
         <v>26</v>
@@ -1054,7 +1067,7 @@
         <v>25</v>
       </c>
       <c r="C20" s="2">
-        <v>44634</v>
+        <v>44635</v>
       </c>
       <c r="D20" t="s">
         <v>26</v>
@@ -1071,13 +1084,1391 @@
         <v>25</v>
       </c>
       <c r="C21" s="2">
-        <v>44634</v>
+        <v>44635</v>
       </c>
       <c r="D21" t="s">
         <v>26</v>
       </c>
       <c r="E21">
         <v>73645</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7">
+        <v>163688</v>
+      </c>
+      <c r="D7">
+        <v>40922</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20">
+        <v>2162122</v>
+      </c>
+      <c r="D20">
+        <v>352800</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="2">
+        <v>44627</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="2">
+        <v>44627</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3">
+        <v>17664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="2">
+        <v>44627</v>
+      </c>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4">
+        <v>142988</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44627</v>
+      </c>
+      <c r="D5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44627</v>
+      </c>
+      <c r="D6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6">
+        <v>108428</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="2">
+        <v>44627</v>
+      </c>
+      <c r="D7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7">
+        <v>223471</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44627</v>
+      </c>
+      <c r="D8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8">
+        <v>12535</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="2">
+        <v>44627</v>
+      </c>
+      <c r="D9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9">
+        <v>77906</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="2">
+        <v>44627</v>
+      </c>
+      <c r="D10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s">
+        <v>114</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="2">
+        <v>44627</v>
+      </c>
+      <c r="D19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19">
+        <v>23392</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" t="s">
+        <v>114</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="2">
+        <v>44627</v>
+      </c>
+      <c r="D21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21">
+        <v>223471</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" t="s">
+        <v>114</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" t="s">
+        <v>114</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" t="s">
+        <v>114</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" t="s">
+        <v>114</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" t="s">
+        <v>114</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" t="s">
+        <v>114</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="2">
+        <v>44627</v>
+      </c>
+      <c r="D29" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" s="2">
+        <v>44627</v>
+      </c>
+      <c r="D30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" s="2">
+        <v>44627</v>
+      </c>
+      <c r="D31" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31">
+        <v>1141</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2">
+        <v>14541</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5">
+        <v>6808</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6">
+        <v>13098</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7">
+        <v>12802</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8">
+        <v>4773</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9">
+        <v>5402</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10">
+        <v>6734</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12">
+        <v>20942</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13">
+        <v>13209</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14">
+        <v>6475</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16">
+        <v>11877</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17">
+        <v>10545</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20">
+        <v>6993</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21">
+        <v>5291</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23">
+        <v>29341</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24">
+        <v>30007</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25">
+        <v>10693</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27">
+        <v>16243</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28">
+        <v>6697</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>110</v>
+      </c>
+      <c r="B31">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32">
+        <v>24420</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>112</v>
+      </c>
+      <c r="B33">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>113</v>
+      </c>
+      <c r="B34">
+        <v>5143</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1133,7 +2524,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="2">
-        <v>44634</v>
+        <v>44635</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
@@ -1159,7 +2550,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="2">
-        <v>44634</v>
+        <v>44635</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -1185,7 +2576,7 @@
         <v>25</v>
       </c>
       <c r="C4" s="2">
-        <v>44634</v>
+        <v>44635</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -1211,7 +2602,7 @@
         <v>25</v>
       </c>
       <c r="C5" s="2">
-        <v>44634</v>
+        <v>44635</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -1237,7 +2628,7 @@
         <v>25</v>
       </c>
       <c r="C6" s="2">
-        <v>44634</v>
+        <v>44635</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -1263,13 +2654,13 @@
         <v>25</v>
       </c>
       <c r="C7" s="2">
-        <v>44634</v>
+        <v>44635</v>
       </c>
       <c r="D7" t="s">
         <v>26</v>
       </c>
       <c r="E7">
-        <v>4232588</v>
+        <v>5029068</v>
       </c>
       <c r="F7" t="s">
         <v>36</v>
@@ -1278,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>4232588</v>
+        <v>5029068</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1289,7 +2680,7 @@
         <v>25</v>
       </c>
       <c r="C8" s="2">
-        <v>44634</v>
+        <v>44635</v>
       </c>
       <c r="D8" t="s">
         <v>26</v>
@@ -1335,7 +2726,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="2">
-        <v>44634</v>
+        <v>44635</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
@@ -1361,7 +2752,7 @@
         <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>44634</v>
+        <v>44635</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -1387,7 +2778,7 @@
         <v>25</v>
       </c>
       <c r="C12" s="2">
-        <v>44634</v>
+        <v>44635</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
@@ -1413,7 +2804,7 @@
         <v>25</v>
       </c>
       <c r="C13" s="2">
-        <v>44634</v>
+        <v>44635</v>
       </c>
       <c r="D13" t="s">
         <v>26</v>
@@ -1439,7 +2830,7 @@
         <v>25</v>
       </c>
       <c r="C14" s="2">
-        <v>44634</v>
+        <v>44635</v>
       </c>
       <c r="D14" t="s">
         <v>26</v>
@@ -1465,7 +2856,7 @@
         <v>25</v>
       </c>
       <c r="C15" s="2">
-        <v>44634</v>
+        <v>44635</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
@@ -1491,7 +2882,7 @@
         <v>25</v>
       </c>
       <c r="C16" s="2">
-        <v>44634</v>
+        <v>44635</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
@@ -1517,7 +2908,7 @@
         <v>25</v>
       </c>
       <c r="C17" s="2">
-        <v>44634</v>
+        <v>44635</v>
       </c>
       <c r="D17" t="s">
         <v>26</v>
@@ -1543,7 +2934,7 @@
         <v>25</v>
       </c>
       <c r="C18" s="2">
-        <v>44634</v>
+        <v>44635</v>
       </c>
       <c r="D18" t="s">
         <v>26</v>
@@ -1569,7 +2960,7 @@
         <v>25</v>
       </c>
       <c r="C19" s="2">
-        <v>44634</v>
+        <v>44635</v>
       </c>
       <c r="D19" t="s">
         <v>26</v>
@@ -1595,7 +2986,7 @@
         <v>25</v>
       </c>
       <c r="C20" s="2">
-        <v>44634</v>
+        <v>44635</v>
       </c>
       <c r="D20" t="s">
         <v>26</v>
@@ -1621,7 +3012,7 @@
         <v>25</v>
       </c>
       <c r="C21" s="2">
-        <v>44634</v>
+        <v>44635</v>
       </c>
       <c r="D21" t="s">
         <v>26</v>
@@ -1729,7 +3120,7 @@
         <v>25</v>
       </c>
       <c r="C7">
-        <v>1592960</v>
+        <v>2389440</v>
       </c>
       <c r="D7">
         <v>796480</v>
@@ -3020,4 +4411,915 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="2">
+        <v>44635</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2">
+        <v>3279</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="2">
+        <v>44635</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3">
+        <v>5015</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="2">
+        <v>44635</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>14089</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44635</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44635</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>359304</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="2">
+        <v>44635</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7">
+        <v>274524</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44635</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="2">
+        <v>44635</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>100800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="2">
+        <v>44635</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>50400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="2">
+        <v>44635</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>326531</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="2">
+        <v>44635</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>1304626</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="2">
+        <v>44635</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>201600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="2">
+        <v>44635</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>2162122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="2">
+        <v>44635</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>76266</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="2">
+        <v>44635</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>34696</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="2">
+        <v>44635</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>7975</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" s="2">
+        <v>44635</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>2162122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="2">
+        <v>44635</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>2282</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="2">
+        <v>44635</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2">
+        <v>3279</v>
+      </c>
+      <c r="F2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>3279</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="2">
+        <v>44635</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3">
+        <v>5015</v>
+      </c>
+      <c r="F3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>5015</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="2">
+        <v>44635</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>14089</v>
+      </c>
+      <c r="F4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>14089</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44635</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>1128</v>
+      </c>
+      <c r="F5" t="s">
+        <v>115</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44635</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>359304</v>
+      </c>
+      <c r="F6" t="s">
+        <v>115</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>359304</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="2">
+        <v>44635</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7">
+        <v>274524</v>
+      </c>
+      <c r="F7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>274524</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44635</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>2266</v>
+      </c>
+      <c r="F8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>115</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="2">
+        <v>44635</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>100800</v>
+      </c>
+      <c r="F10" t="s">
+        <v>115</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>100800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="2">
+        <v>44635</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>50400</v>
+      </c>
+      <c r="F11" t="s">
+        <v>115</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>50400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="2">
+        <v>44635</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>326531</v>
+      </c>
+      <c r="F12" t="s">
+        <v>115</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>326531</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>115</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="2">
+        <v>44635</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>1304626</v>
+      </c>
+      <c r="F14" t="s">
+        <v>115</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>1304626</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="2">
+        <v>44635</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>201600</v>
+      </c>
+      <c r="F15" t="s">
+        <v>115</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>201600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="2">
+        <v>44635</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>2162122</v>
+      </c>
+      <c r="F16" t="s">
+        <v>115</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>2162122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="2">
+        <v>44635</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>76266</v>
+      </c>
+      <c r="F17" t="s">
+        <v>115</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>76266</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="2">
+        <v>44635</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>34696</v>
+      </c>
+      <c r="F18" t="s">
+        <v>115</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>34696</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="2">
+        <v>44635</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>7975</v>
+      </c>
+      <c r="F19" t="s">
+        <v>115</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>7975</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" s="2">
+        <v>44635</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>2162122</v>
+      </c>
+      <c r="F20" t="s">
+        <v>115</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>2162122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="2">
+        <v>44635</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>2282</v>
+      </c>
+      <c r="F21" t="s">
+        <v>115</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>2282</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/allTest_DCE.xlsx
+++ b/allTest_DCE.xlsx
@@ -7,27 +7,20 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="insCountMax dev_ilumedpi" sheetId="1" r:id="rId1"/>
-    <sheet name="insCountMaxC dev_ilumedpi" sheetId="2" r:id="rId2"/>
-    <sheet name="dupInsCheck dev_ilumedpi" sheetId="3" r:id="rId3"/>
-    <sheet name="acoXdupMonth dev_ilumedpi" sheetId="4" r:id="rId4"/>
-    <sheet name="odsCountMax dev_ilumedpi" sheetId="5" r:id="rId5"/>
-    <sheet name="ccsCompare dev_ilumedpi" sheetId="6" r:id="rId6"/>
-    <sheet name="dupODSchk dev_ilumedpi" sheetId="7" r:id="rId7"/>
-    <sheet name="insCountMax dev_bluerockdc" sheetId="8" r:id="rId8"/>
-    <sheet name="insCountMaxC dev_bluerockdc" sheetId="9" r:id="rId9"/>
-    <sheet name="dupInsCheck dev_bluerockdc" sheetId="10" r:id="rId10"/>
-    <sheet name="acoXdupMonth dev_bluerockdc" sheetId="11" r:id="rId11"/>
-    <sheet name="odsCountMax dev_bluerockdc" sheetId="12" r:id="rId12"/>
-    <sheet name="ccsCompare dev_bluerockdc" sheetId="13" r:id="rId13"/>
-    <sheet name="dupODSchk dev_bluerockdc" sheetId="14" r:id="rId14"/>
+    <sheet name="insCountMax prod_ilumedpi" sheetId="1" r:id="rId1"/>
+    <sheet name="insCountMaxC prod_ilumedpi" sheetId="2" r:id="rId2"/>
+    <sheet name="dupInsCheck prod_ilumedpi" sheetId="3" r:id="rId3"/>
+    <sheet name="acoXdupMonth prod_ilumedpi" sheetId="4" r:id="rId4"/>
+    <sheet name="odsCountMax prod_ilumedpi" sheetId="5" r:id="rId5"/>
+    <sheet name="ccsCompare prod_ilumedpi" sheetId="6" r:id="rId6"/>
+    <sheet name="dupODSchk prod_ilumedpi" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="115">
   <si>
     <t>tableName</t>
   </si>
@@ -104,7 +97,7 @@
     <t>patient_roster</t>
   </si>
   <si>
-    <t>DEV_ILUMEDPI</t>
+    <t>PROD_ILUMEDPI</t>
   </si>
   <si>
     <t>m-2022-02</t>
@@ -137,7 +130,10 @@
     <t>diff</t>
   </si>
   <si>
-    <t>DEV_ILUMEDPI_FE</t>
+    <t>PROD_ILUMEDPI_FE</t>
+  </si>
+  <si>
+    <t>m-2021-12</t>
   </si>
   <si>
     <t>rowsEffected</t>
@@ -369,12 +365,6 @@
   </si>
   <si>
     <t>emr_chronic_condition_stroke_transient_ischemic_attack</t>
-  </si>
-  <si>
-    <t>DEV_BLUEROCKDC</t>
-  </si>
-  <si>
-    <t>DEV_BLUEROCKDC_FE</t>
   </si>
 </sst>
 </file>
@@ -767,7 +757,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="2">
-        <v>44635</v>
+        <v>44636</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
@@ -784,7 +774,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="2">
-        <v>44635</v>
+        <v>44636</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -801,7 +791,7 @@
         <v>25</v>
       </c>
       <c r="C4" s="2">
-        <v>44635</v>
+        <v>44636</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -818,7 +808,7 @@
         <v>25</v>
       </c>
       <c r="C5" s="2">
-        <v>44635</v>
+        <v>44636</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -835,7 +825,7 @@
         <v>25</v>
       </c>
       <c r="C6" s="2">
-        <v>44635</v>
+        <v>44636</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -852,13 +842,13 @@
         <v>25</v>
       </c>
       <c r="C7" s="2">
-        <v>44635</v>
+        <v>44636</v>
       </c>
       <c r="D7" t="s">
         <v>26</v>
       </c>
       <c r="E7">
-        <v>5029068</v>
+        <v>3436108</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -869,7 +859,7 @@
         <v>25</v>
       </c>
       <c r="C8" s="2">
-        <v>44635</v>
+        <v>44636</v>
       </c>
       <c r="D8" t="s">
         <v>26</v>
@@ -897,7 +887,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="2">
-        <v>44635</v>
+        <v>44636</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
@@ -914,7 +904,7 @@
         <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>44635</v>
+        <v>44636</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -931,7 +921,7 @@
         <v>25</v>
       </c>
       <c r="C12" s="2">
-        <v>44635</v>
+        <v>44636</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
@@ -948,7 +938,7 @@
         <v>25</v>
       </c>
       <c r="C13" s="2">
-        <v>44635</v>
+        <v>44636</v>
       </c>
       <c r="D13" t="s">
         <v>26</v>
@@ -965,7 +955,7 @@
         <v>25</v>
       </c>
       <c r="C14" s="2">
-        <v>44635</v>
+        <v>44636</v>
       </c>
       <c r="D14" t="s">
         <v>26</v>
@@ -982,7 +972,7 @@
         <v>25</v>
       </c>
       <c r="C15" s="2">
-        <v>44635</v>
+        <v>44636</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
@@ -999,7 +989,7 @@
         <v>25</v>
       </c>
       <c r="C16" s="2">
-        <v>44635</v>
+        <v>44636</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
@@ -1016,7 +1006,7 @@
         <v>25</v>
       </c>
       <c r="C17" s="2">
-        <v>44635</v>
+        <v>44636</v>
       </c>
       <c r="D17" t="s">
         <v>26</v>
@@ -1033,7 +1023,7 @@
         <v>25</v>
       </c>
       <c r="C18" s="2">
-        <v>44635</v>
+        <v>44636</v>
       </c>
       <c r="D18" t="s">
         <v>26</v>
@@ -1050,7 +1040,7 @@
         <v>25</v>
       </c>
       <c r="C19" s="2">
-        <v>44635</v>
+        <v>44636</v>
       </c>
       <c r="D19" t="s">
         <v>26</v>
@@ -1067,7 +1057,7 @@
         <v>25</v>
       </c>
       <c r="C20" s="2">
-        <v>44635</v>
+        <v>44636</v>
       </c>
       <c r="D20" t="s">
         <v>26</v>
@@ -1084,1391 +1074,13 @@
         <v>25</v>
       </c>
       <c r="C21" s="2">
-        <v>44635</v>
+        <v>44636</v>
       </c>
       <c r="D21" t="s">
         <v>26</v>
       </c>
       <c r="E21">
         <v>73645</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7">
-        <v>163688</v>
-      </c>
-      <c r="D7">
-        <v>40922</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>114</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>114</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>114</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>114</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>114</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" t="s">
-        <v>114</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" t="s">
-        <v>114</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>114</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>114</v>
-      </c>
-      <c r="C20">
-        <v>2162122</v>
-      </c>
-      <c r="D20">
-        <v>352800</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>114</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C2" s="2">
-        <v>44627</v>
-      </c>
-      <c r="D2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C3" s="2">
-        <v>44627</v>
-      </c>
-      <c r="D3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3">
-        <v>17664</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C4" s="2">
-        <v>44627</v>
-      </c>
-      <c r="D4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4">
-        <v>142988</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C5" s="2">
-        <v>44627</v>
-      </c>
-      <c r="D5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5">
-        <v>1672</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C6" s="2">
-        <v>44627</v>
-      </c>
-      <c r="D6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6">
-        <v>108428</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" s="2">
-        <v>44627</v>
-      </c>
-      <c r="D7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7">
-        <v>223471</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" s="2">
-        <v>44627</v>
-      </c>
-      <c r="D8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8">
-        <v>12535</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C9" s="2">
-        <v>44627</v>
-      </c>
-      <c r="D9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9">
-        <v>77906</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C10" s="2">
-        <v>44627</v>
-      </c>
-      <c r="D10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10">
-        <v>1290</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" t="s">
-        <v>114</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" t="s">
-        <v>114</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" t="s">
-        <v>114</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" t="s">
-        <v>114</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" t="s">
-        <v>114</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" t="s">
-        <v>114</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" t="s">
-        <v>114</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" t="s">
-        <v>114</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" t="s">
-        <v>114</v>
-      </c>
-      <c r="C19" s="2">
-        <v>44627</v>
-      </c>
-      <c r="D19" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19">
-        <v>23392</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" t="s">
-        <v>114</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" t="s">
-        <v>114</v>
-      </c>
-      <c r="C21" s="2">
-        <v>44627</v>
-      </c>
-      <c r="D21" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21">
-        <v>223471</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" t="s">
-        <v>114</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" t="s">
-        <v>114</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24" t="s">
-        <v>114</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" t="s">
-        <v>114</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" t="s">
-        <v>114</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" t="s">
-        <v>114</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>71</v>
-      </c>
-      <c r="B28" t="s">
-        <v>114</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>72</v>
-      </c>
-      <c r="B29" t="s">
-        <v>114</v>
-      </c>
-      <c r="C29" s="2">
-        <v>44627</v>
-      </c>
-      <c r="D29" t="s">
-        <v>75</v>
-      </c>
-      <c r="E29">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
-        <v>73</v>
-      </c>
-      <c r="B30" t="s">
-        <v>114</v>
-      </c>
-      <c r="C30" s="2">
-        <v>44627</v>
-      </c>
-      <c r="D30" t="s">
-        <v>76</v>
-      </c>
-      <c r="E30">
-        <v>1997</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
-        <v>74</v>
-      </c>
-      <c r="B31" t="s">
-        <v>114</v>
-      </c>
-      <c r="C31" s="2">
-        <v>44627</v>
-      </c>
-      <c r="D31" t="s">
-        <v>76</v>
-      </c>
-      <c r="E31">
-        <v>1141</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2">
-        <v>14541</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4">
-        <v>2331</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5">
-        <v>6808</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6">
-        <v>13098</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7">
-        <v>12802</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B8">
-        <v>4773</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B9">
-        <v>5402</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B10">
-        <v>6734</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>90</v>
-      </c>
-      <c r="B11">
-        <v>2442</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B12">
-        <v>20942</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>92</v>
-      </c>
-      <c r="B13">
-        <v>13209</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14">
-        <v>6475</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B15">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>95</v>
-      </c>
-      <c r="B16">
-        <v>11877</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17">
-        <v>10545</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>97</v>
-      </c>
-      <c r="B18">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>98</v>
-      </c>
-      <c r="B19">
-        <v>1702</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>99</v>
-      </c>
-      <c r="B20">
-        <v>6993</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>100</v>
-      </c>
-      <c r="B21">
-        <v>5291</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>101</v>
-      </c>
-      <c r="B22">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>102</v>
-      </c>
-      <c r="B23">
-        <v>29341</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>103</v>
-      </c>
-      <c r="B24">
-        <v>30007</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>104</v>
-      </c>
-      <c r="B25">
-        <v>10693</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>105</v>
-      </c>
-      <c r="B26">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>106</v>
-      </c>
-      <c r="B27">
-        <v>16243</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>107</v>
-      </c>
-      <c r="B28">
-        <v>6697</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>108</v>
-      </c>
-      <c r="B29">
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>109</v>
-      </c>
-      <c r="B30">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>110</v>
-      </c>
-      <c r="B31">
-        <v>2072</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>111</v>
-      </c>
-      <c r="B32">
-        <v>24420</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>112</v>
-      </c>
-      <c r="B33">
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>113</v>
-      </c>
-      <c r="B34">
-        <v>5143</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" t="s">
-        <v>114</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" t="s">
-        <v>114</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" t="s">
-        <v>114</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" t="s">
-        <v>114</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" t="s">
-        <v>114</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" t="s">
-        <v>114</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" t="s">
-        <v>114</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" t="s">
-        <v>114</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" t="s">
-        <v>114</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" t="s">
-        <v>114</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" t="s">
-        <v>114</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" t="s">
-        <v>114</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" t="s">
-        <v>114</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24" t="s">
-        <v>114</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" t="s">
-        <v>114</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" t="s">
-        <v>114</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" t="s">
-        <v>114</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>71</v>
-      </c>
-      <c r="B28" t="s">
-        <v>114</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>72</v>
-      </c>
-      <c r="B29" t="s">
-        <v>114</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>73</v>
-      </c>
-      <c r="B30" t="s">
-        <v>114</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>74</v>
-      </c>
-      <c r="B31" t="s">
-        <v>114</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2524,7 +1136,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="2">
-        <v>44635</v>
+        <v>44636</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
@@ -2535,11 +1147,17 @@
       <c r="F2" t="s">
         <v>36</v>
       </c>
+      <c r="G2" s="2">
+        <v>44581</v>
+      </c>
+      <c r="H2" t="s">
+        <v>37</v>
+      </c>
       <c r="I2">
-        <v>0</v>
+        <v>7901</v>
       </c>
       <c r="J2">
-        <v>21537</v>
+        <v>13636</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2550,7 +1168,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="2">
-        <v>44635</v>
+        <v>44636</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -2561,11 +1179,17 @@
       <c r="F3" t="s">
         <v>36</v>
       </c>
+      <c r="G3" s="2">
+        <v>44581</v>
+      </c>
+      <c r="H3" t="s">
+        <v>37</v>
+      </c>
       <c r="I3">
-        <v>0</v>
+        <v>13330</v>
       </c>
       <c r="J3">
-        <v>34581</v>
+        <v>21251</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2576,7 +1200,7 @@
         <v>25</v>
       </c>
       <c r="C4" s="2">
-        <v>44635</v>
+        <v>44636</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -2587,11 +1211,17 @@
       <c r="F4" t="s">
         <v>36</v>
       </c>
+      <c r="G4" s="2">
+        <v>44581</v>
+      </c>
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
       <c r="I4">
-        <v>0</v>
+        <v>33827</v>
       </c>
       <c r="J4">
-        <v>100861</v>
+        <v>67034</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2602,7 +1232,7 @@
         <v>25</v>
       </c>
       <c r="C5" s="2">
-        <v>44635</v>
+        <v>44636</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -2613,11 +1243,17 @@
       <c r="F5" t="s">
         <v>36</v>
       </c>
+      <c r="G5" s="2">
+        <v>44581</v>
+      </c>
+      <c r="H5" t="s">
+        <v>37</v>
+      </c>
       <c r="I5">
-        <v>0</v>
+        <v>4719</v>
       </c>
       <c r="J5">
-        <v>22636</v>
+        <v>17917</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2628,7 +1264,7 @@
         <v>25</v>
       </c>
       <c r="C6" s="2">
-        <v>44635</v>
+        <v>44636</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -2639,11 +1275,17 @@
       <c r="F6" t="s">
         <v>36</v>
       </c>
+      <c r="G6" s="2">
+        <v>44581</v>
+      </c>
+      <c r="H6" t="s">
+        <v>37</v>
+      </c>
       <c r="I6">
-        <v>0</v>
+        <v>2155240</v>
       </c>
       <c r="J6">
-        <v>8241191</v>
+        <v>6085951</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2654,22 +1296,28 @@
         <v>25</v>
       </c>
       <c r="C7" s="2">
-        <v>44635</v>
+        <v>44636</v>
       </c>
       <c r="D7" t="s">
         <v>26</v>
       </c>
       <c r="E7">
-        <v>5029068</v>
+        <v>3436108</v>
       </c>
       <c r="F7" t="s">
         <v>36</v>
       </c>
+      <c r="G7" s="2">
+        <v>44581</v>
+      </c>
+      <c r="H7" t="s">
+        <v>37</v>
+      </c>
       <c r="I7">
-        <v>0</v>
+        <v>800387</v>
       </c>
       <c r="J7">
-        <v>5029068</v>
+        <v>2635721</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2680,7 +1328,7 @@
         <v>25</v>
       </c>
       <c r="C8" s="2">
-        <v>44635</v>
+        <v>44636</v>
       </c>
       <c r="D8" t="s">
         <v>26</v>
@@ -2691,11 +1339,17 @@
       <c r="F8" t="s">
         <v>36</v>
       </c>
+      <c r="G8" s="2">
+        <v>44581</v>
+      </c>
+      <c r="H8" t="s">
+        <v>37</v>
+      </c>
       <c r="I8">
-        <v>0</v>
+        <v>12645</v>
       </c>
       <c r="J8">
-        <v>37016</v>
+        <v>24371</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2726,7 +1380,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="2">
-        <v>44635</v>
+        <v>44636</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
@@ -2737,11 +1391,17 @@
       <c r="F10" t="s">
         <v>36</v>
       </c>
+      <c r="G10" s="2">
+        <v>44581</v>
+      </c>
+      <c r="H10" t="s">
+        <v>37</v>
+      </c>
       <c r="I10">
-        <v>0</v>
+        <v>331766</v>
       </c>
       <c r="J10">
-        <v>1155940</v>
+        <v>824174</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2752,7 +1412,7 @@
         <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>44635</v>
+        <v>44636</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -2763,11 +1423,17 @@
       <c r="F11" t="s">
         <v>36</v>
       </c>
+      <c r="G11" s="2">
+        <v>44581</v>
+      </c>
+      <c r="H11" t="s">
+        <v>37</v>
+      </c>
       <c r="I11">
-        <v>0</v>
+        <v>213282</v>
       </c>
       <c r="J11">
-        <v>1050505</v>
+        <v>837223</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2778,7 +1444,7 @@
         <v>25</v>
       </c>
       <c r="C12" s="2">
-        <v>44635</v>
+        <v>44636</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
@@ -2789,11 +1455,17 @@
       <c r="F12" t="s">
         <v>36</v>
       </c>
+      <c r="G12" s="2">
+        <v>44581</v>
+      </c>
+      <c r="H12" t="s">
+        <v>37</v>
+      </c>
       <c r="I12">
-        <v>0</v>
+        <v>1579026</v>
       </c>
       <c r="J12">
-        <v>7709261</v>
+        <v>6130235</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2804,7 +1476,7 @@
         <v>25</v>
       </c>
       <c r="C13" s="2">
-        <v>44635</v>
+        <v>44636</v>
       </c>
       <c r="D13" t="s">
         <v>26</v>
@@ -2815,11 +1487,17 @@
       <c r="F13" t="s">
         <v>36</v>
       </c>
+      <c r="G13" s="2">
+        <v>44581</v>
+      </c>
+      <c r="H13" t="s">
+        <v>37</v>
+      </c>
       <c r="I13">
-        <v>0</v>
+        <v>157555</v>
       </c>
       <c r="J13">
-        <v>971265</v>
+        <v>813710</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2830,7 +1508,7 @@
         <v>25</v>
       </c>
       <c r="C14" s="2">
-        <v>44635</v>
+        <v>44636</v>
       </c>
       <c r="D14" t="s">
         <v>26</v>
@@ -2841,11 +1519,17 @@
       <c r="F14" t="s">
         <v>36</v>
       </c>
+      <c r="G14" s="2">
+        <v>44581</v>
+      </c>
+      <c r="H14" t="s">
+        <v>37</v>
+      </c>
       <c r="I14">
-        <v>0</v>
+        <v>2313836</v>
       </c>
       <c r="J14">
-        <v>4100060</v>
+        <v>1786224</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2856,7 +1540,7 @@
         <v>25</v>
       </c>
       <c r="C15" s="2">
-        <v>44635</v>
+        <v>44636</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
@@ -2867,11 +1551,17 @@
       <c r="F15" t="s">
         <v>36</v>
       </c>
+      <c r="G15" s="2">
+        <v>44581</v>
+      </c>
+      <c r="H15" t="s">
+        <v>37</v>
+      </c>
       <c r="I15">
-        <v>0</v>
+        <v>663532</v>
       </c>
       <c r="J15">
-        <v>2311880</v>
+        <v>1648348</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2882,7 +1572,7 @@
         <v>25</v>
       </c>
       <c r="C16" s="2">
-        <v>44635</v>
+        <v>44636</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
@@ -2893,11 +1583,17 @@
       <c r="F16" t="s">
         <v>36</v>
       </c>
+      <c r="G16" s="2">
+        <v>44581</v>
+      </c>
+      <c r="H16" t="s">
+        <v>37</v>
+      </c>
       <c r="I16">
-        <v>0</v>
+        <v>7220995</v>
       </c>
       <c r="J16">
-        <v>25058370</v>
+        <v>17837375</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2908,7 +1604,7 @@
         <v>25</v>
       </c>
       <c r="C17" s="2">
-        <v>44635</v>
+        <v>44636</v>
       </c>
       <c r="D17" t="s">
         <v>26</v>
@@ -2919,11 +1615,17 @@
       <c r="F17" t="s">
         <v>36</v>
       </c>
+      <c r="G17" s="2">
+        <v>44581</v>
+      </c>
+      <c r="H17" t="s">
+        <v>37</v>
+      </c>
       <c r="I17">
-        <v>0</v>
+        <v>323984</v>
       </c>
       <c r="J17">
-        <v>876345</v>
+        <v>552361</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2934,7 +1636,7 @@
         <v>25</v>
       </c>
       <c r="C18" s="2">
-        <v>44635</v>
+        <v>44636</v>
       </c>
       <c r="D18" t="s">
         <v>26</v>
@@ -2945,11 +1647,17 @@
       <c r="F18" t="s">
         <v>36</v>
       </c>
+      <c r="G18" s="2">
+        <v>44581</v>
+      </c>
+      <c r="H18" t="s">
+        <v>37</v>
+      </c>
       <c r="I18">
-        <v>0</v>
+        <v>194914</v>
       </c>
       <c r="J18">
-        <v>809256</v>
+        <v>614342</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2960,7 +1668,7 @@
         <v>25</v>
       </c>
       <c r="C19" s="2">
-        <v>44635</v>
+        <v>44636</v>
       </c>
       <c r="D19" t="s">
         <v>26</v>
@@ -2971,11 +1679,17 @@
       <c r="F19" t="s">
         <v>36</v>
       </c>
+      <c r="G19" s="2">
+        <v>44581</v>
+      </c>
+      <c r="H19" t="s">
+        <v>37</v>
+      </c>
       <c r="I19">
-        <v>0</v>
+        <v>92106</v>
       </c>
       <c r="J19">
-        <v>267408</v>
+        <v>175302</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2986,7 +1700,7 @@
         <v>25</v>
       </c>
       <c r="C20" s="2">
-        <v>44635</v>
+        <v>44636</v>
       </c>
       <c r="D20" t="s">
         <v>26</v>
@@ -2997,11 +1711,17 @@
       <c r="F20" t="s">
         <v>36</v>
       </c>
+      <c r="G20" s="2">
+        <v>44581</v>
+      </c>
+      <c r="H20" t="s">
+        <v>37</v>
+      </c>
       <c r="I20">
-        <v>0</v>
+        <v>7220995</v>
       </c>
       <c r="J20">
-        <v>25058370</v>
+        <v>17837375</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -3012,7 +1732,7 @@
         <v>25</v>
       </c>
       <c r="C21" s="2">
-        <v>44635</v>
+        <v>44636</v>
       </c>
       <c r="D21" t="s">
         <v>26</v>
@@ -3023,11 +1743,17 @@
       <c r="F21" t="s">
         <v>36</v>
       </c>
+      <c r="G21" s="2">
+        <v>44581</v>
+      </c>
+      <c r="H21" t="s">
+        <v>37</v>
+      </c>
       <c r="I21">
-        <v>0</v>
+        <v>30738</v>
       </c>
       <c r="J21">
-        <v>73645</v>
+        <v>42907</v>
       </c>
     </row>
   </sheetData>
@@ -3051,10 +1777,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3119,11 +1845,8 @@
       <c r="B7" t="s">
         <v>25</v>
       </c>
-      <c r="C7">
-        <v>2389440</v>
-      </c>
       <c r="D7">
-        <v>796480</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3298,22 +2021,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -3348,7 +2071,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -3357,7 +2080,7 @@
         <v>44603</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E2">
         <v>132</v>
@@ -3365,7 +2088,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -3374,7 +2097,7 @@
         <v>44603</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E3">
         <v>346850</v>
@@ -3382,7 +2105,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -3391,7 +2114,7 @@
         <v>44603</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E4">
         <v>2914519</v>
@@ -3399,7 +2122,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -3408,7 +2131,7 @@
         <v>44603</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E5">
         <v>36898</v>
@@ -3416,7 +2139,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -3425,7 +2148,7 @@
         <v>44603</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E6">
         <v>1909035</v>
@@ -3433,7 +2156,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -3442,7 +2165,7 @@
         <v>44616</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E7">
         <v>5666079</v>
@@ -3450,7 +2173,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -3459,7 +2182,7 @@
         <v>44603</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E8">
         <v>216115</v>
@@ -3467,7 +2190,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -3476,7 +2199,7 @@
         <v>44603</v>
       </c>
       <c r="D9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E9">
         <v>1943957</v>
@@ -3484,7 +2207,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -3493,7 +2216,7 @@
         <v>44603</v>
       </c>
       <c r="D10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E10">
         <v>63416</v>
@@ -3501,7 +2224,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -3512,7 +2235,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -3523,7 +2246,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -3534,7 +2257,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -3545,7 +2268,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -3556,7 +2279,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -3567,7 +2290,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
@@ -3578,7 +2301,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -3589,7 +2312,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -3598,7 +2321,7 @@
         <v>44603</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E19">
         <v>396201</v>
@@ -3606,7 +2329,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -3617,7 +2340,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -3626,7 +2349,7 @@
         <v>44603</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E21">
         <v>5666079</v>
@@ -3634,7 +2357,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
@@ -3645,7 +2368,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B23" t="s">
         <v>25</v>
@@ -3656,7 +2379,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
@@ -3667,7 +2390,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
@@ -3678,7 +2401,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B26" t="s">
         <v>25</v>
@@ -3689,7 +2412,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B27" t="s">
         <v>25</v>
@@ -3700,7 +2423,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B28" t="s">
         <v>25</v>
@@ -3711,7 +2434,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B29" t="s">
         <v>25</v>
@@ -3720,7 +2443,7 @@
         <v>44622</v>
       </c>
       <c r="D29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E29">
         <v>62829</v>
@@ -3728,7 +2451,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B30" t="s">
         <v>25</v>
@@ -3737,7 +2460,7 @@
         <v>44603</v>
       </c>
       <c r="D30" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E30">
         <v>51354</v>
@@ -3745,7 +2468,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B31" t="s">
         <v>25</v>
@@ -3754,7 +2477,7 @@
         <v>44603</v>
       </c>
       <c r="D31" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E31">
         <v>55122</v>
@@ -3775,13 +2498,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>35</v>
@@ -3789,266 +2512,464 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B2">
         <v>279461</v>
       </c>
+      <c r="C2">
+        <v>57683</v>
+      </c>
+      <c r="D2">
+        <v>221778</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3">
         <v>12765</v>
       </c>
+      <c r="C3">
+        <v>2368</v>
+      </c>
+      <c r="D3">
+        <v>10397</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B4">
         <v>25937</v>
       </c>
+      <c r="C4">
+        <v>7955</v>
+      </c>
+      <c r="D4">
+        <v>17982</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B5">
         <v>87061</v>
       </c>
+      <c r="C5">
+        <v>25678</v>
+      </c>
+      <c r="D5">
+        <v>61383</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B6">
         <v>324231</v>
       </c>
+      <c r="C6">
+        <v>68487</v>
+      </c>
+      <c r="D6">
+        <v>255744</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B7">
         <v>268435</v>
       </c>
+      <c r="C7">
+        <v>61309</v>
+      </c>
+      <c r="D7">
+        <v>207126</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B8">
         <v>94757</v>
       </c>
+      <c r="C8">
+        <v>22200</v>
+      </c>
+      <c r="D8">
+        <v>72557</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B9">
         <v>147297</v>
       </c>
+      <c r="C9">
+        <v>31820</v>
+      </c>
+      <c r="D9">
+        <v>115477</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B10">
         <v>211048</v>
       </c>
+      <c r="C10">
+        <v>37555</v>
+      </c>
+      <c r="D10">
+        <v>173493</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B11">
         <v>57757</v>
       </c>
+      <c r="C11">
+        <v>7400</v>
+      </c>
+      <c r="D11">
+        <v>50357</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B12">
         <v>484367</v>
       </c>
+      <c r="C12">
+        <v>97532</v>
+      </c>
+      <c r="D12">
+        <v>386835</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B13">
         <v>317719</v>
       </c>
+      <c r="C13">
+        <v>71595</v>
+      </c>
+      <c r="D13">
+        <v>246124</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B14">
         <v>196840</v>
       </c>
+      <c r="C14">
+        <v>53502</v>
+      </c>
+      <c r="D14">
+        <v>143338</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B15">
         <v>18019</v>
       </c>
+      <c r="C15">
+        <v>3922</v>
+      </c>
+      <c r="D15">
+        <v>14097</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B16">
         <v>209420</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16">
+        <v>47767</v>
+      </c>
+      <c r="D16">
+        <v>161653</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B17">
         <v>296407</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>66008</v>
+      </c>
+      <c r="D17">
+        <v>230399</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B18">
         <v>7178</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>1406</v>
+      </c>
+      <c r="D18">
+        <v>5772</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B19">
         <v>53169</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>9916</v>
+      </c>
+      <c r="D19">
+        <v>43253</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B20">
         <v>178895</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20">
+        <v>34817</v>
+      </c>
+      <c r="D20">
+        <v>144078</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B21">
         <v>137640</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21">
+        <v>35705</v>
+      </c>
+      <c r="D21">
+        <v>101935</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B22">
         <v>10767</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22">
+        <v>1813</v>
+      </c>
+      <c r="D22">
+        <v>8954</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B23">
         <v>708550</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23">
+        <v>144707</v>
+      </c>
+      <c r="D23">
+        <v>563843</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B24">
         <v>676841</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24">
+        <v>143449</v>
+      </c>
+      <c r="D24">
+        <v>533392</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B25">
         <v>313131</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25">
+        <v>67192</v>
+      </c>
+      <c r="D25">
+        <v>245939</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B26">
         <v>15873</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26">
+        <v>3848</v>
+      </c>
+      <c r="D26">
+        <v>12025</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B27">
         <v>327672</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>66970</v>
+      </c>
+      <c r="D27">
+        <v>260702</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B28">
         <v>202390</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28">
+        <v>37407</v>
+      </c>
+      <c r="D28">
+        <v>164983</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B29">
         <v>22163</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29">
+        <v>4440</v>
+      </c>
+      <c r="D29">
+        <v>17723</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B30">
         <v>10767</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30">
+        <v>2627</v>
+      </c>
+      <c r="D30">
+        <v>8140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B31">
         <v>57165</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31">
+        <v>9213</v>
+      </c>
+      <c r="D31">
+        <v>47952</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B32">
         <v>480482</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32">
+        <v>107781</v>
+      </c>
+      <c r="D32">
+        <v>372701</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B33">
         <v>19462</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33">
+        <v>7474</v>
+      </c>
+      <c r="D33">
+        <v>11988</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B34">
         <v>108114</v>
+      </c>
+      <c r="C34">
+        <v>24198</v>
+      </c>
+      <c r="D34">
+        <v>83916</v>
       </c>
     </row>
   </sheetData>
@@ -4072,15 +2993,15 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -4091,7 +3012,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -4102,7 +3023,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -4113,7 +3034,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -4124,7 +3045,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -4135,7 +3056,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -4146,7 +3067,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -4157,7 +3078,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -4168,7 +3089,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -4179,7 +3100,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -4190,7 +3111,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -4201,7 +3122,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -4212,7 +3133,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -4223,7 +3144,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -4234,7 +3155,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -4245,7 +3166,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
@@ -4256,7 +3177,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -4267,7 +3188,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -4278,7 +3199,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -4289,7 +3210,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -4300,7 +3221,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
@@ -4311,7 +3232,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B23" t="s">
         <v>25</v>
@@ -4322,7 +3243,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
@@ -4333,7 +3254,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
@@ -4344,7 +3265,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B26" t="s">
         <v>25</v>
@@ -4355,7 +3276,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B27" t="s">
         <v>25</v>
@@ -4366,7 +3287,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B28" t="s">
         <v>25</v>
@@ -4377,7 +3298,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B29" t="s">
         <v>25</v>
@@ -4388,7 +3309,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B30" t="s">
         <v>25</v>
@@ -4399,924 +3320,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B31" t="s">
         <v>25</v>
       </c>
       <c r="D31">
         <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C2" s="2">
-        <v>44635</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2">
-        <v>3279</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C3" s="2">
-        <v>44635</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3">
-        <v>5015</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C4" s="2">
-        <v>44635</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4">
-        <v>14089</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C5" s="2">
-        <v>44635</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C6" s="2">
-        <v>44635</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6">
-        <v>359304</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" s="2">
-        <v>44635</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7">
-        <v>274524</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" s="2">
-        <v>44635</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8">
-        <v>2266</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C10" s="2">
-        <v>44635</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10">
-        <v>100800</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C11" s="2">
-        <v>44635</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>50400</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>114</v>
-      </c>
-      <c r="C12" s="2">
-        <v>44635</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12">
-        <v>326531</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>114</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>114</v>
-      </c>
-      <c r="C14" s="2">
-        <v>44635</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14">
-        <v>1304626</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>114</v>
-      </c>
-      <c r="C15" s="2">
-        <v>44635</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15">
-        <v>201600</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" t="s">
-        <v>114</v>
-      </c>
-      <c r="C16" s="2">
-        <v>44635</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>2162122</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" t="s">
-        <v>114</v>
-      </c>
-      <c r="C17" s="2">
-        <v>44635</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17">
-        <v>76266</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" t="s">
-        <v>114</v>
-      </c>
-      <c r="C18" s="2">
-        <v>44635</v>
-      </c>
-      <c r="D18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18">
-        <v>34696</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>114</v>
-      </c>
-      <c r="C19" s="2">
-        <v>44635</v>
-      </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19">
-        <v>7975</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>114</v>
-      </c>
-      <c r="C20" s="2">
-        <v>44635</v>
-      </c>
-      <c r="D20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20">
-        <v>2162122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>114</v>
-      </c>
-      <c r="C21" s="2">
-        <v>44635</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21">
-        <v>2282</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C2" s="2">
-        <v>44635</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2">
-        <v>3279</v>
-      </c>
-      <c r="F2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>3279</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C3" s="2">
-        <v>44635</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3">
-        <v>5015</v>
-      </c>
-      <c r="F3" t="s">
-        <v>115</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>5015</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C4" s="2">
-        <v>44635</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4">
-        <v>14089</v>
-      </c>
-      <c r="F4" t="s">
-        <v>115</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>14089</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C5" s="2">
-        <v>44635</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5">
-        <v>1128</v>
-      </c>
-      <c r="F5" t="s">
-        <v>115</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C6" s="2">
-        <v>44635</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6">
-        <v>359304</v>
-      </c>
-      <c r="F6" t="s">
-        <v>115</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>359304</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" s="2">
-        <v>44635</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7">
-        <v>274524</v>
-      </c>
-      <c r="F7" t="s">
-        <v>115</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>274524</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" s="2">
-        <v>44635</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8">
-        <v>2266</v>
-      </c>
-      <c r="F8" t="s">
-        <v>115</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>2266</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>115</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C10" s="2">
-        <v>44635</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10">
-        <v>100800</v>
-      </c>
-      <c r="F10" t="s">
-        <v>115</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>100800</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C11" s="2">
-        <v>44635</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>50400</v>
-      </c>
-      <c r="F11" t="s">
-        <v>115</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>50400</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>114</v>
-      </c>
-      <c r="C12" s="2">
-        <v>44635</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12">
-        <v>326531</v>
-      </c>
-      <c r="F12" t="s">
-        <v>115</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>326531</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>114</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13" t="s">
-        <v>115</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>114</v>
-      </c>
-      <c r="C14" s="2">
-        <v>44635</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14">
-        <v>1304626</v>
-      </c>
-      <c r="F14" t="s">
-        <v>115</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>1304626</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>114</v>
-      </c>
-      <c r="C15" s="2">
-        <v>44635</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15">
-        <v>201600</v>
-      </c>
-      <c r="F15" t="s">
-        <v>115</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>201600</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" t="s">
-        <v>114</v>
-      </c>
-      <c r="C16" s="2">
-        <v>44635</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>2162122</v>
-      </c>
-      <c r="F16" t="s">
-        <v>115</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>2162122</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" t="s">
-        <v>114</v>
-      </c>
-      <c r="C17" s="2">
-        <v>44635</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17">
-        <v>76266</v>
-      </c>
-      <c r="F17" t="s">
-        <v>115</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>76266</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" t="s">
-        <v>114</v>
-      </c>
-      <c r="C18" s="2">
-        <v>44635</v>
-      </c>
-      <c r="D18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18">
-        <v>34696</v>
-      </c>
-      <c r="F18" t="s">
-        <v>115</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>34696</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>114</v>
-      </c>
-      <c r="C19" s="2">
-        <v>44635</v>
-      </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19">
-        <v>7975</v>
-      </c>
-      <c r="F19" t="s">
-        <v>115</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>7975</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>114</v>
-      </c>
-      <c r="C20" s="2">
-        <v>44635</v>
-      </c>
-      <c r="D20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20">
-        <v>2162122</v>
-      </c>
-      <c r="F20" t="s">
-        <v>115</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>2162122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>114</v>
-      </c>
-      <c r="C21" s="2">
-        <v>44635</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21">
-        <v>2282</v>
-      </c>
-      <c r="F21" t="s">
-        <v>115</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>2282</v>
       </c>
     </row>
   </sheetData>

--- a/allTest_DCE.xlsx
+++ b/allTest_DCE.xlsx
@@ -7,20 +7,27 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="insCountMax prod_ilumedpi" sheetId="1" r:id="rId1"/>
-    <sheet name="insCountMaxC prod_ilumedpi" sheetId="2" r:id="rId2"/>
-    <sheet name="dupInsCheck prod_ilumedpi" sheetId="3" r:id="rId3"/>
-    <sheet name="acoXdupMonth prod_ilumedpi" sheetId="4" r:id="rId4"/>
-    <sheet name="odsCountMax prod_ilumedpi" sheetId="5" r:id="rId5"/>
-    <sheet name="ccsCompare prod_ilumedpi" sheetId="6" r:id="rId6"/>
-    <sheet name="dupODSchk prod_ilumedpi" sheetId="7" r:id="rId7"/>
+    <sheet name="insCountMax prod_adaugeopi" sheetId="1" r:id="rId1"/>
+    <sheet name="insCountMaxC prod_adaugeopi" sheetId="2" r:id="rId2"/>
+    <sheet name="dupInsCheck prod_adaugeopi" sheetId="3" r:id="rId3"/>
+    <sheet name="acoXdupMonth prod_adaugeopi" sheetId="4" r:id="rId4"/>
+    <sheet name="odsCountMax prod_adaugeopi" sheetId="5" r:id="rId5"/>
+    <sheet name="ccsCompare prod_adaugeopi" sheetId="6" r:id="rId6"/>
+    <sheet name="dupODSchk prod_adaugeopi" sheetId="7" r:id="rId7"/>
+    <sheet name="insCountMax prod_ilumedpi" sheetId="8" r:id="rId8"/>
+    <sheet name="insCountMaxC prod_ilumedpi" sheetId="9" r:id="rId9"/>
+    <sheet name="dupInsCheck prod_ilumedpi" sheetId="10" r:id="rId10"/>
+    <sheet name="acoXdupMonth prod_ilumedpi" sheetId="11" r:id="rId11"/>
+    <sheet name="odsCountMax prod_ilumedpi" sheetId="12" r:id="rId12"/>
+    <sheet name="ccsCompare prod_ilumedpi" sheetId="13" r:id="rId13"/>
+    <sheet name="dupODSchk prod_ilumedpi" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="118">
   <si>
     <t>tableName</t>
   </si>
@@ -97,274 +104,283 @@
     <t>patient_roster</t>
   </si>
   <si>
+    <t>PROD_ADAUGEOPI</t>
+  </si>
+  <si>
+    <t>m-2022-02</t>
+  </si>
+  <si>
+    <t>orgDBName_x</t>
+  </si>
+  <si>
+    <t>MaxLoadTS_x</t>
+  </si>
+  <si>
+    <t>MaxLP_x</t>
+  </si>
+  <si>
+    <t>rwCount_x</t>
+  </si>
+  <si>
+    <t>orgDBName_y</t>
+  </si>
+  <si>
+    <t>MaxLoadTS_y</t>
+  </si>
+  <si>
+    <t>MaxLP_y</t>
+  </si>
+  <si>
+    <t>rwCount_y</t>
+  </si>
+  <si>
+    <t>diff</t>
+  </si>
+  <si>
+    <t>PROD_ADAUGEOPI_FE</t>
+  </si>
+  <si>
+    <t>m-2021-12</t>
+  </si>
+  <si>
+    <t>rowsEffected</t>
+  </si>
+  <si>
+    <t>pkRowCount</t>
+  </si>
+  <si>
+    <t>ATTRIBUTION_REASON_CD</t>
+  </si>
+  <si>
+    <t>ATTRIBUTION_SOURCE_CD</t>
+  </si>
+  <si>
+    <t>FK_ACO_ID</t>
+  </si>
+  <si>
+    <t>FK_PATIENT_ID</t>
+  </si>
+  <si>
+    <t>MONTH_CD</t>
+  </si>
+  <si>
+    <t>DUPMOCNT</t>
+  </si>
+  <si>
+    <t>cclf_0_summ_stat</t>
+  </si>
+  <si>
+    <t>cclf_1_pt_a_clm_hdr</t>
+  </si>
+  <si>
+    <t>cclf_2_pt_a_clm_rev_ctr_det</t>
+  </si>
+  <si>
+    <t>cclf_3_pt_a_proc_cd</t>
+  </si>
+  <si>
+    <t>cclf_4_pt_a_diag_cd</t>
+  </si>
+  <si>
+    <t>cclf_5_pt_b_phys</t>
+  </si>
+  <si>
+    <t>cclf_6_pt_b_dme</t>
+  </si>
+  <si>
+    <t>cclf_7_pt_d</t>
+  </si>
+  <si>
+    <t>cclf_8_bene_demo</t>
+  </si>
+  <si>
+    <t>cclf_assgn_0_header</t>
+  </si>
+  <si>
+    <t>cclf_assgn_1_hcc</t>
+  </si>
+  <si>
+    <t>cclf_assgn_1_summ</t>
+  </si>
+  <si>
+    <t>cclf_assgn_2_tin</t>
+  </si>
+  <si>
+    <t>cclf_assgn_3_ccn</t>
+  </si>
+  <si>
+    <t>cclf_assgn_4_tin_npi</t>
+  </si>
+  <si>
+    <t>cclf_assgn_5_turnover</t>
+  </si>
+  <si>
+    <t>cclf_assgn_6_assgnbl</t>
+  </si>
+  <si>
+    <t>cclf_a_pt_a_be_demo</t>
+  </si>
+  <si>
+    <t>cclf_benchmark_1_detail</t>
+  </si>
+  <si>
+    <t>cclf_b_pt_b_be_demo</t>
+  </si>
+  <si>
+    <t>cclf_expu_0_header</t>
+  </si>
+  <si>
+    <t>cclf_expu_1_detail</t>
+  </si>
+  <si>
+    <t>cclf_expu_2_regional</t>
+  </si>
+  <si>
+    <t>cclf_expu_2_snf</t>
+  </si>
+  <si>
+    <t>cclf_expu_3_snf</t>
+  </si>
+  <si>
+    <t>cclf_ng_align</t>
+  </si>
+  <si>
+    <t>nh_network_model_0_hdr</t>
+  </si>
+  <si>
+    <t>dce_align</t>
+  </si>
+  <si>
+    <t>dce_palmr</t>
+  </si>
+  <si>
+    <t>dce_risk_score</t>
+  </si>
+  <si>
+    <t>2022-02</t>
+  </si>
+  <si>
+    <t>2021-07</t>
+  </si>
+  <si>
+    <t>2022-01</t>
+  </si>
+  <si>
+    <t>q-2022-1</t>
+  </si>
+  <si>
+    <t>MEASURE_ID</t>
+  </si>
+  <si>
+    <t>RWCNT_x</t>
+  </si>
+  <si>
+    <t>RWCNT_y</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_acquired_hypothyroidism</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_acute_myocardial_infarction</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_alzheimers_disease</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_alzheimers_disease_and_related_disorders_or_senile_dementia</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_anemia</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_anxiety_disorders</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_asthma</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_atrial_fibrillation</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_benign_prostatic_hyperplasia</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_bipolar_disorder</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_cataract</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_chronic_kidney_disease</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_chronic_obstructive_pulmonary_disease_and_bronchiectasis</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_colorectal_cancer</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_depression</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_diabetes</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_endometrial_cancer</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_female_male_breast_cancer</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_glaucoma</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_heart_failure</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_hip_pelvic_fracture</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_hyperlipidemia</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_hypertension</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_ischemic_heart_disease</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_lung_cancer</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_obesity</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_osteoporosis</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_personality_disorders</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_post_traumatic_stress_disorder</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_prostate_cancer</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_rheumatoid_arthritis_osteoarthritis</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_schizophrenia_and_other_psychotic_disorders</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_stroke_transient_ischemic_attack</t>
+  </si>
+  <si>
     <t>PROD_ILUMEDPI</t>
   </si>
   <si>
-    <t>m-2022-02</t>
-  </si>
-  <si>
-    <t>orgDBName_x</t>
-  </si>
-  <si>
-    <t>MaxLoadTS_x</t>
-  </si>
-  <si>
-    <t>MaxLP_x</t>
-  </si>
-  <si>
-    <t>rwCount_x</t>
-  </si>
-  <si>
-    <t>orgDBName_y</t>
-  </si>
-  <si>
-    <t>MaxLoadTS_y</t>
-  </si>
-  <si>
-    <t>MaxLP_y</t>
-  </si>
-  <si>
-    <t>rwCount_y</t>
-  </si>
-  <si>
-    <t>diff</t>
-  </si>
-  <si>
     <t>PROD_ILUMEDPI_FE</t>
-  </si>
-  <si>
-    <t>m-2021-12</t>
-  </si>
-  <si>
-    <t>rowsEffected</t>
-  </si>
-  <si>
-    <t>pkRowCount</t>
-  </si>
-  <si>
-    <t>ATTRIBUTION_REASON_CD</t>
-  </si>
-  <si>
-    <t>ATTRIBUTION_SOURCE_CD</t>
-  </si>
-  <si>
-    <t>FK_ACO_ID</t>
-  </si>
-  <si>
-    <t>FK_PATIENT_ID</t>
-  </si>
-  <si>
-    <t>MONTH_CD</t>
-  </si>
-  <si>
-    <t>DUPMOCNT</t>
-  </si>
-  <si>
-    <t>cclf_0_summ_stat</t>
-  </si>
-  <si>
-    <t>cclf_1_pt_a_clm_hdr</t>
-  </si>
-  <si>
-    <t>cclf_2_pt_a_clm_rev_ctr_det</t>
-  </si>
-  <si>
-    <t>cclf_3_pt_a_proc_cd</t>
-  </si>
-  <si>
-    <t>cclf_4_pt_a_diag_cd</t>
-  </si>
-  <si>
-    <t>cclf_5_pt_b_phys</t>
-  </si>
-  <si>
-    <t>cclf_6_pt_b_dme</t>
-  </si>
-  <si>
-    <t>cclf_7_pt_d</t>
-  </si>
-  <si>
-    <t>cclf_8_bene_demo</t>
-  </si>
-  <si>
-    <t>cclf_assgn_0_header</t>
-  </si>
-  <si>
-    <t>cclf_assgn_1_hcc</t>
-  </si>
-  <si>
-    <t>cclf_assgn_1_summ</t>
-  </si>
-  <si>
-    <t>cclf_assgn_2_tin</t>
-  </si>
-  <si>
-    <t>cclf_assgn_3_ccn</t>
-  </si>
-  <si>
-    <t>cclf_assgn_4_tin_npi</t>
-  </si>
-  <si>
-    <t>cclf_assgn_5_turnover</t>
-  </si>
-  <si>
-    <t>cclf_assgn_6_assgnbl</t>
-  </si>
-  <si>
-    <t>cclf_a_pt_a_be_demo</t>
-  </si>
-  <si>
-    <t>cclf_benchmark_1_detail</t>
-  </si>
-  <si>
-    <t>cclf_b_pt_b_be_demo</t>
-  </si>
-  <si>
-    <t>cclf_expu_0_header</t>
-  </si>
-  <si>
-    <t>cclf_expu_1_detail</t>
-  </si>
-  <si>
-    <t>cclf_expu_2_regional</t>
-  </si>
-  <si>
-    <t>cclf_expu_2_snf</t>
-  </si>
-  <si>
-    <t>cclf_expu_3_snf</t>
-  </si>
-  <si>
-    <t>cclf_ng_align</t>
-  </si>
-  <si>
-    <t>nh_network_model_0_hdr</t>
-  </si>
-  <si>
-    <t>dce_align</t>
-  </si>
-  <si>
-    <t>dce_palmr</t>
-  </si>
-  <si>
-    <t>dce_risk_score</t>
-  </si>
-  <si>
-    <t>2022-02</t>
-  </si>
-  <si>
-    <t>2022-01</t>
-  </si>
-  <si>
-    <t>q-2022-1</t>
-  </si>
-  <si>
-    <t>MEASURE_ID</t>
-  </si>
-  <si>
-    <t>RWCNT_x</t>
-  </si>
-  <si>
-    <t>RWCNT_y</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_acquired_hypothyroidism</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_acute_myocardial_infarction</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_alzheimers_disease</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_alzheimers_disease_and_related_disorders_or_senile_dementia</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_anemia</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_anxiety_disorders</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_asthma</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_atrial_fibrillation</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_benign_prostatic_hyperplasia</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_bipolar_disorder</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_cataract</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_chronic_kidney_disease</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_chronic_obstructive_pulmonary_disease_and_bronchiectasis</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_colorectal_cancer</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_depression</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_diabetes</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_endometrial_cancer</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_female_male_breast_cancer</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_glaucoma</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_heart_failure</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_hip_pelvic_fracture</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_hyperlipidemia</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_hypertension</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_ischemic_heart_disease</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_lung_cancer</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_obesity</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_osteoporosis</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_personality_disorders</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_post_traumatic_stress_disorder</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_prostate_cancer</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_rheumatoid_arthritis_osteoarthritis</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_schizophrenia_and_other_psychotic_disorders</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_stroke_transient_ischemic_attack</t>
   </si>
 </sst>
 </file>
@@ -757,13 +773,13 @@
         <v>25</v>
       </c>
       <c r="C2" s="2">
-        <v>44636</v>
+        <v>44637</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
       </c>
       <c r="E2">
-        <v>21537</v>
+        <v>8342</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -774,13 +790,13 @@
         <v>25</v>
       </c>
       <c r="C3" s="2">
-        <v>44636</v>
+        <v>44637</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
       </c>
       <c r="E3">
-        <v>34581</v>
+        <v>14840</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -791,13 +807,13 @@
         <v>25</v>
       </c>
       <c r="C4" s="2">
-        <v>44636</v>
+        <v>44637</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
       </c>
       <c r="E4">
-        <v>100861</v>
+        <v>43575</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -808,13 +824,13 @@
         <v>25</v>
       </c>
       <c r="C5" s="2">
-        <v>44636</v>
+        <v>44637</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>22636</v>
+        <v>20132</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -825,13 +841,13 @@
         <v>25</v>
       </c>
       <c r="C6" s="2">
-        <v>44636</v>
+        <v>44637</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>8241191</v>
+        <v>5032903</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -842,13 +858,13 @@
         <v>25</v>
       </c>
       <c r="C7" s="2">
-        <v>44636</v>
+        <v>44637</v>
       </c>
       <c r="D7" t="s">
         <v>26</v>
       </c>
       <c r="E7">
-        <v>3436108</v>
+        <v>2444544</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -859,13 +875,13 @@
         <v>25</v>
       </c>
       <c r="C8" s="2">
-        <v>44636</v>
+        <v>44637</v>
       </c>
       <c r="D8" t="s">
         <v>26</v>
       </c>
       <c r="E8">
-        <v>37016</v>
+        <v>14306</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -887,13 +903,13 @@
         <v>25</v>
       </c>
       <c r="C10" s="2">
-        <v>44636</v>
+        <v>44637</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1155940</v>
+        <v>1176718</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -904,13 +920,13 @@
         <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>44636</v>
+        <v>44637</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1050505</v>
+        <v>925458</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -921,13 +937,13 @@
         <v>25</v>
       </c>
       <c r="C12" s="2">
-        <v>44636</v>
+        <v>44637</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
       </c>
       <c r="E12">
-        <v>7709261</v>
+        <v>5439713</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -938,13 +954,13 @@
         <v>25</v>
       </c>
       <c r="C13" s="2">
-        <v>44636</v>
+        <v>44637</v>
       </c>
       <c r="D13" t="s">
         <v>26</v>
       </c>
       <c r="E13">
-        <v>971265</v>
+        <v>895057</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -955,13 +971,13 @@
         <v>25</v>
       </c>
       <c r="C14" s="2">
-        <v>44636</v>
+        <v>44637</v>
       </c>
       <c r="D14" t="s">
         <v>26</v>
       </c>
       <c r="E14">
-        <v>4100060</v>
+        <v>6501161</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -972,13 +988,13 @@
         <v>25</v>
       </c>
       <c r="C15" s="2">
-        <v>44636</v>
+        <v>44637</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
       </c>
       <c r="E15">
-        <v>2311880</v>
+        <v>2353436</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -989,13 +1005,13 @@
         <v>25</v>
       </c>
       <c r="C16" s="2">
-        <v>44636</v>
+        <v>44637</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
       </c>
       <c r="E16">
-        <v>25058370</v>
+        <v>24365058</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1006,13 +1022,13 @@
         <v>25</v>
       </c>
       <c r="C17" s="2">
-        <v>44636</v>
+        <v>44637</v>
       </c>
       <c r="D17" t="s">
         <v>26</v>
       </c>
       <c r="E17">
-        <v>876345</v>
+        <v>851574</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1023,13 +1039,13 @@
         <v>25</v>
       </c>
       <c r="C18" s="2">
-        <v>44636</v>
+        <v>44637</v>
       </c>
       <c r="D18" t="s">
         <v>26</v>
       </c>
       <c r="E18">
-        <v>809256</v>
+        <v>590389</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1040,13 +1056,13 @@
         <v>25</v>
       </c>
       <c r="C19" s="2">
-        <v>44636</v>
+        <v>44637</v>
       </c>
       <c r="D19" t="s">
         <v>26</v>
       </c>
       <c r="E19">
-        <v>267408</v>
+        <v>258210</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1057,13 +1073,13 @@
         <v>25</v>
       </c>
       <c r="C20" s="2">
-        <v>44636</v>
+        <v>44637</v>
       </c>
       <c r="D20" t="s">
         <v>26</v>
       </c>
       <c r="E20">
-        <v>25058370</v>
+        <v>24365058</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1074,13 +1090,1586 @@
         <v>25</v>
       </c>
       <c r="C21" s="2">
-        <v>44636</v>
+        <v>44637</v>
       </c>
       <c r="D21" t="s">
         <v>26</v>
       </c>
       <c r="E21">
-        <v>73645</v>
+        <v>98242</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20">
+        <v>20726387</v>
+      </c>
+      <c r="D20">
+        <v>2793912</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="2">
+        <v>44603</v>
+      </c>
+      <c r="D2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="2">
+        <v>44603</v>
+      </c>
+      <c r="D3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3">
+        <v>346850</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="2">
+        <v>44603</v>
+      </c>
+      <c r="D4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4">
+        <v>2914519</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44603</v>
+      </c>
+      <c r="D5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5">
+        <v>36898</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44603</v>
+      </c>
+      <c r="D6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6">
+        <v>1909035</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="2">
+        <v>44616</v>
+      </c>
+      <c r="D7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7">
+        <v>5666079</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44603</v>
+      </c>
+      <c r="D8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8">
+        <v>216115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="2">
+        <v>44603</v>
+      </c>
+      <c r="D9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9">
+        <v>1943957</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="2">
+        <v>44603</v>
+      </c>
+      <c r="D10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10">
+        <v>63416</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" t="s">
+        <v>116</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" t="s">
+        <v>116</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="2">
+        <v>44603</v>
+      </c>
+      <c r="D19" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19">
+        <v>396201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" s="2">
+        <v>44603</v>
+      </c>
+      <c r="D21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21">
+        <v>5666079</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" t="s">
+        <v>116</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" t="s">
+        <v>116</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" t="s">
+        <v>116</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" s="2">
+        <v>44622</v>
+      </c>
+      <c r="D29" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29">
+        <v>62829</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" s="2">
+        <v>44603</v>
+      </c>
+      <c r="D30" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30">
+        <v>51354</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" s="2">
+        <v>44603</v>
+      </c>
+      <c r="D31" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31">
+        <v>55122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2">
+        <v>279461</v>
+      </c>
+      <c r="C2">
+        <v>57683</v>
+      </c>
+      <c r="D2">
+        <v>221778</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3">
+        <v>12765</v>
+      </c>
+      <c r="C3">
+        <v>2368</v>
+      </c>
+      <c r="D3">
+        <v>10397</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4">
+        <v>25937</v>
+      </c>
+      <c r="C4">
+        <v>7955</v>
+      </c>
+      <c r="D4">
+        <v>17982</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5">
+        <v>87061</v>
+      </c>
+      <c r="C5">
+        <v>25678</v>
+      </c>
+      <c r="D5">
+        <v>61383</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6">
+        <v>324231</v>
+      </c>
+      <c r="C6">
+        <v>68487</v>
+      </c>
+      <c r="D6">
+        <v>255744</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7">
+        <v>268435</v>
+      </c>
+      <c r="C7">
+        <v>61309</v>
+      </c>
+      <c r="D7">
+        <v>207126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8">
+        <v>94757</v>
+      </c>
+      <c r="C8">
+        <v>22200</v>
+      </c>
+      <c r="D8">
+        <v>72557</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9">
+        <v>147297</v>
+      </c>
+      <c r="C9">
+        <v>31820</v>
+      </c>
+      <c r="D9">
+        <v>115477</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10">
+        <v>211048</v>
+      </c>
+      <c r="C10">
+        <v>37555</v>
+      </c>
+      <c r="D10">
+        <v>173493</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11">
+        <v>57757</v>
+      </c>
+      <c r="C11">
+        <v>7400</v>
+      </c>
+      <c r="D11">
+        <v>50357</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12">
+        <v>484367</v>
+      </c>
+      <c r="C12">
+        <v>97532</v>
+      </c>
+      <c r="D12">
+        <v>386835</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13">
+        <v>317719</v>
+      </c>
+      <c r="C13">
+        <v>71595</v>
+      </c>
+      <c r="D13">
+        <v>246124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14">
+        <v>196840</v>
+      </c>
+      <c r="C14">
+        <v>53502</v>
+      </c>
+      <c r="D14">
+        <v>143338</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15">
+        <v>18019</v>
+      </c>
+      <c r="C15">
+        <v>3922</v>
+      </c>
+      <c r="D15">
+        <v>14097</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16">
+        <v>209420</v>
+      </c>
+      <c r="C16">
+        <v>47767</v>
+      </c>
+      <c r="D16">
+        <v>161653</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17">
+        <v>296407</v>
+      </c>
+      <c r="C17">
+        <v>66008</v>
+      </c>
+      <c r="D17">
+        <v>230399</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18">
+        <v>7178</v>
+      </c>
+      <c r="C18">
+        <v>1406</v>
+      </c>
+      <c r="D18">
+        <v>5772</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19">
+        <v>53169</v>
+      </c>
+      <c r="C19">
+        <v>9916</v>
+      </c>
+      <c r="D19">
+        <v>43253</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20">
+        <v>178895</v>
+      </c>
+      <c r="C20">
+        <v>34817</v>
+      </c>
+      <c r="D20">
+        <v>144078</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21">
+        <v>137640</v>
+      </c>
+      <c r="C21">
+        <v>35705</v>
+      </c>
+      <c r="D21">
+        <v>101935</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22">
+        <v>10767</v>
+      </c>
+      <c r="C22">
+        <v>1813</v>
+      </c>
+      <c r="D22">
+        <v>8954</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23">
+        <v>708550</v>
+      </c>
+      <c r="C23">
+        <v>144707</v>
+      </c>
+      <c r="D23">
+        <v>563843</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24">
+        <v>676841</v>
+      </c>
+      <c r="C24">
+        <v>143449</v>
+      </c>
+      <c r="D24">
+        <v>533392</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25">
+        <v>313131</v>
+      </c>
+      <c r="C25">
+        <v>67192</v>
+      </c>
+      <c r="D25">
+        <v>245939</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26">
+        <v>15873</v>
+      </c>
+      <c r="C26">
+        <v>3848</v>
+      </c>
+      <c r="D26">
+        <v>12025</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27">
+        <v>327672</v>
+      </c>
+      <c r="C27">
+        <v>66970</v>
+      </c>
+      <c r="D27">
+        <v>260702</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28">
+        <v>202390</v>
+      </c>
+      <c r="C28">
+        <v>37407</v>
+      </c>
+      <c r="D28">
+        <v>164983</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29">
+        <v>22163</v>
+      </c>
+      <c r="C29">
+        <v>4440</v>
+      </c>
+      <c r="D29">
+        <v>17723</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30">
+        <v>10767</v>
+      </c>
+      <c r="C30">
+        <v>2627</v>
+      </c>
+      <c r="D30">
+        <v>8140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>112</v>
+      </c>
+      <c r="B31">
+        <v>57165</v>
+      </c>
+      <c r="C31">
+        <v>9213</v>
+      </c>
+      <c r="D31">
+        <v>47952</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32">
+        <v>480482</v>
+      </c>
+      <c r="C32">
+        <v>107781</v>
+      </c>
+      <c r="D32">
+        <v>372701</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>114</v>
+      </c>
+      <c r="B33">
+        <v>19462</v>
+      </c>
+      <c r="C33">
+        <v>7474</v>
+      </c>
+      <c r="D33">
+        <v>11988</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>115</v>
+      </c>
+      <c r="B34">
+        <v>108114</v>
+      </c>
+      <c r="C34">
+        <v>24198</v>
+      </c>
+      <c r="D34">
+        <v>83916</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" t="s">
+        <v>116</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" t="s">
+        <v>116</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" t="s">
+        <v>116</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" t="s">
+        <v>116</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1136,13 +2725,13 @@
         <v>25</v>
       </c>
       <c r="C2" s="2">
-        <v>44636</v>
+        <v>44637</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
       </c>
       <c r="E2">
-        <v>21537</v>
+        <v>8342</v>
       </c>
       <c r="F2" t="s">
         <v>36</v>
@@ -1154,10 +2743,10 @@
         <v>37</v>
       </c>
       <c r="I2">
-        <v>7901</v>
+        <v>4532</v>
       </c>
       <c r="J2">
-        <v>13636</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1168,13 +2757,13 @@
         <v>25</v>
       </c>
       <c r="C3" s="2">
-        <v>44636</v>
+        <v>44637</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
       </c>
       <c r="E3">
-        <v>34581</v>
+        <v>14840</v>
       </c>
       <c r="F3" t="s">
         <v>36</v>
@@ -1186,10 +2775,10 @@
         <v>37</v>
       </c>
       <c r="I3">
-        <v>13330</v>
+        <v>8173</v>
       </c>
       <c r="J3">
-        <v>21251</v>
+        <v>6667</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1200,13 +2789,13 @@
         <v>25</v>
       </c>
       <c r="C4" s="2">
-        <v>44636</v>
+        <v>44637</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
       </c>
       <c r="E4">
-        <v>100861</v>
+        <v>43575</v>
       </c>
       <c r="F4" t="s">
         <v>36</v>
@@ -1218,10 +2807,10 @@
         <v>37</v>
       </c>
       <c r="I4">
-        <v>33827</v>
+        <v>23876</v>
       </c>
       <c r="J4">
-        <v>67034</v>
+        <v>19699</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1232,13 +2821,13 @@
         <v>25</v>
       </c>
       <c r="C5" s="2">
-        <v>44636</v>
+        <v>44637</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>22636</v>
+        <v>20132</v>
       </c>
       <c r="F5" t="s">
         <v>36</v>
@@ -1250,10 +2839,10 @@
         <v>37</v>
       </c>
       <c r="I5">
-        <v>4719</v>
+        <v>7458</v>
       </c>
       <c r="J5">
-        <v>17917</v>
+        <v>12674</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1264,13 +2853,13 @@
         <v>25</v>
       </c>
       <c r="C6" s="2">
-        <v>44636</v>
+        <v>44637</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>8241191</v>
+        <v>5032903</v>
       </c>
       <c r="F6" t="s">
         <v>36</v>
@@ -1282,10 +2871,10 @@
         <v>37</v>
       </c>
       <c r="I6">
-        <v>2155240</v>
+        <v>2076602</v>
       </c>
       <c r="J6">
-        <v>6085951</v>
+        <v>2956301</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1296,13 +2885,13 @@
         <v>25</v>
       </c>
       <c r="C7" s="2">
-        <v>44636</v>
+        <v>44637</v>
       </c>
       <c r="D7" t="s">
         <v>26</v>
       </c>
       <c r="E7">
-        <v>3436108</v>
+        <v>2444544</v>
       </c>
       <c r="F7" t="s">
         <v>36</v>
@@ -1314,10 +2903,10 @@
         <v>37</v>
       </c>
       <c r="I7">
-        <v>800387</v>
+        <v>1049368</v>
       </c>
       <c r="J7">
-        <v>2635721</v>
+        <v>1395176</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1328,13 +2917,13 @@
         <v>25</v>
       </c>
       <c r="C8" s="2">
-        <v>44636</v>
+        <v>44637</v>
       </c>
       <c r="D8" t="s">
         <v>26</v>
       </c>
       <c r="E8">
-        <v>37016</v>
+        <v>14306</v>
       </c>
       <c r="F8" t="s">
         <v>36</v>
@@ -1346,10 +2935,10 @@
         <v>37</v>
       </c>
       <c r="I8">
-        <v>12645</v>
+        <v>6037</v>
       </c>
       <c r="J8">
-        <v>24371</v>
+        <v>8269</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1380,13 +2969,13 @@
         <v>25</v>
       </c>
       <c r="C10" s="2">
-        <v>44636</v>
+        <v>44637</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1155940</v>
+        <v>1176718</v>
       </c>
       <c r="F10" t="s">
         <v>36</v>
@@ -1398,10 +2987,10 @@
         <v>37</v>
       </c>
       <c r="I10">
-        <v>331766</v>
+        <v>632734</v>
       </c>
       <c r="J10">
-        <v>824174</v>
+        <v>543984</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1412,13 +3001,13 @@
         <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>44636</v>
+        <v>44637</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1050505</v>
+        <v>925458</v>
       </c>
       <c r="F11" t="s">
         <v>36</v>
@@ -1430,10 +3019,10 @@
         <v>37</v>
       </c>
       <c r="I11">
-        <v>213282</v>
+        <v>341372</v>
       </c>
       <c r="J11">
-        <v>837223</v>
+        <v>584086</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1444,13 +3033,13 @@
         <v>25</v>
       </c>
       <c r="C12" s="2">
-        <v>44636</v>
+        <v>44637</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
       </c>
       <c r="E12">
-        <v>7709261</v>
+        <v>5439713</v>
       </c>
       <c r="F12" t="s">
         <v>36</v>
@@ -1462,10 +3051,10 @@
         <v>37</v>
       </c>
       <c r="I12">
-        <v>1579026</v>
+        <v>2047368</v>
       </c>
       <c r="J12">
-        <v>6130235</v>
+        <v>3392345</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1476,13 +3065,13 @@
         <v>25</v>
       </c>
       <c r="C13" s="2">
-        <v>44636</v>
+        <v>44637</v>
       </c>
       <c r="D13" t="s">
         <v>26</v>
       </c>
       <c r="E13">
-        <v>971265</v>
+        <v>895057</v>
       </c>
       <c r="F13" t="s">
         <v>36</v>
@@ -1494,10 +3083,10 @@
         <v>37</v>
       </c>
       <c r="I13">
-        <v>157555</v>
+        <v>356499</v>
       </c>
       <c r="J13">
-        <v>813710</v>
+        <v>538558</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1508,13 +3097,13 @@
         <v>25</v>
       </c>
       <c r="C14" s="2">
-        <v>44636</v>
+        <v>44637</v>
       </c>
       <c r="D14" t="s">
         <v>26</v>
       </c>
       <c r="E14">
-        <v>4100060</v>
+        <v>6501161</v>
       </c>
       <c r="F14" t="s">
         <v>36</v>
@@ -1526,10 +3115,10 @@
         <v>37</v>
       </c>
       <c r="I14">
-        <v>2313836</v>
+        <v>3539221</v>
       </c>
       <c r="J14">
-        <v>1786224</v>
+        <v>2961940</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1540,13 +3129,13 @@
         <v>25</v>
       </c>
       <c r="C15" s="2">
-        <v>44636</v>
+        <v>44637</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
       </c>
       <c r="E15">
-        <v>2311880</v>
+        <v>2353436</v>
       </c>
       <c r="F15" t="s">
         <v>36</v>
@@ -1558,10 +3147,10 @@
         <v>37</v>
       </c>
       <c r="I15">
-        <v>663532</v>
+        <v>1265468</v>
       </c>
       <c r="J15">
-        <v>1648348</v>
+        <v>1087968</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1572,13 +3161,13 @@
         <v>25</v>
       </c>
       <c r="C16" s="2">
-        <v>44636</v>
+        <v>44637</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
       </c>
       <c r="E16">
-        <v>25058370</v>
+        <v>24365058</v>
       </c>
       <c r="F16" t="s">
         <v>36</v>
@@ -1590,10 +3179,10 @@
         <v>37</v>
       </c>
       <c r="I16">
-        <v>7220995</v>
+        <v>13304316</v>
       </c>
       <c r="J16">
-        <v>17837375</v>
+        <v>11060742</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1604,13 +3193,13 @@
         <v>25</v>
       </c>
       <c r="C17" s="2">
-        <v>44636</v>
+        <v>44637</v>
       </c>
       <c r="D17" t="s">
         <v>26</v>
       </c>
       <c r="E17">
-        <v>876345</v>
+        <v>851574</v>
       </c>
       <c r="F17" t="s">
         <v>36</v>
@@ -1622,10 +3211,10 @@
         <v>37</v>
       </c>
       <c r="I17">
-        <v>323984</v>
+        <v>497734</v>
       </c>
       <c r="J17">
-        <v>552361</v>
+        <v>353840</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1636,13 +3225,13 @@
         <v>25</v>
       </c>
       <c r="C18" s="2">
-        <v>44636</v>
+        <v>44637</v>
       </c>
       <c r="D18" t="s">
         <v>26</v>
       </c>
       <c r="E18">
-        <v>809256</v>
+        <v>590389</v>
       </c>
       <c r="F18" t="s">
         <v>36</v>
@@ -1654,10 +3243,10 @@
         <v>37</v>
       </c>
       <c r="I18">
-        <v>194914</v>
+        <v>239731</v>
       </c>
       <c r="J18">
-        <v>614342</v>
+        <v>350658</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1668,13 +3257,13 @@
         <v>25</v>
       </c>
       <c r="C19" s="2">
-        <v>44636</v>
+        <v>44637</v>
       </c>
       <c r="D19" t="s">
         <v>26</v>
       </c>
       <c r="E19">
-        <v>267408</v>
+        <v>258210</v>
       </c>
       <c r="F19" t="s">
         <v>36</v>
@@ -1686,10 +3275,10 @@
         <v>37</v>
       </c>
       <c r="I19">
-        <v>92106</v>
+        <v>116479</v>
       </c>
       <c r="J19">
-        <v>175302</v>
+        <v>141731</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1700,13 +3289,13 @@
         <v>25</v>
       </c>
       <c r="C20" s="2">
-        <v>44636</v>
+        <v>44637</v>
       </c>
       <c r="D20" t="s">
         <v>26</v>
       </c>
       <c r="E20">
-        <v>25058370</v>
+        <v>24365058</v>
       </c>
       <c r="F20" t="s">
         <v>36</v>
@@ -1718,10 +3307,10 @@
         <v>37</v>
       </c>
       <c r="I20">
-        <v>7220995</v>
+        <v>13304316</v>
       </c>
       <c r="J20">
-        <v>17837375</v>
+        <v>11060742</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1732,13 +3321,13 @@
         <v>25</v>
       </c>
       <c r="C21" s="2">
-        <v>44636</v>
+        <v>44637</v>
       </c>
       <c r="D21" t="s">
         <v>26</v>
       </c>
       <c r="E21">
-        <v>73645</v>
+        <v>98242</v>
       </c>
       <c r="F21" t="s">
         <v>36</v>
@@ -1750,10 +3339,10 @@
         <v>37</v>
       </c>
       <c r="I21">
-        <v>30738</v>
+        <v>62282</v>
       </c>
       <c r="J21">
-        <v>42907</v>
+        <v>35960</v>
       </c>
     </row>
   </sheetData>
@@ -1989,10 +3578,10 @@
         <v>25</v>
       </c>
       <c r="C20">
-        <v>20726387</v>
+        <v>21262657</v>
       </c>
       <c r="D20">
-        <v>2793912</v>
+        <v>3241951</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2083,7 +3672,7 @@
         <v>76</v>
       </c>
       <c r="E2">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2100,7 +3689,7 @@
         <v>76</v>
       </c>
       <c r="E3">
-        <v>346850</v>
+        <v>348629</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2117,7 +3706,7 @@
         <v>76</v>
       </c>
       <c r="E4">
-        <v>2914519</v>
+        <v>1984312</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2134,7 +3723,7 @@
         <v>76</v>
       </c>
       <c r="E5">
-        <v>36898</v>
+        <v>19083</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2151,7 +3740,7 @@
         <v>76</v>
       </c>
       <c r="E6">
-        <v>1909035</v>
+        <v>1394450</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2162,13 +3751,13 @@
         <v>25</v>
       </c>
       <c r="C7" s="2">
-        <v>44616</v>
+        <v>44603</v>
       </c>
       <c r="D7" t="s">
         <v>76</v>
       </c>
       <c r="E7">
-        <v>5666079</v>
+        <v>2815438</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2185,7 +3774,7 @@
         <v>76</v>
       </c>
       <c r="E8">
-        <v>216115</v>
+        <v>203798</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2202,7 +3791,7 @@
         <v>76</v>
       </c>
       <c r="E9">
-        <v>1943957</v>
+        <v>1307869</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2219,7 +3808,7 @@
         <v>76</v>
       </c>
       <c r="E10">
-        <v>63416</v>
+        <v>104624</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2324,7 +3913,7 @@
         <v>76</v>
       </c>
       <c r="E19">
-        <v>396201</v>
+        <v>383619</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2352,7 +3941,7 @@
         <v>76</v>
       </c>
       <c r="E21">
-        <v>5666079</v>
+        <v>2815438</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2428,8 +4017,14 @@
       <c r="B28" t="s">
         <v>25</v>
       </c>
+      <c r="C28" s="2">
+        <v>44403</v>
+      </c>
+      <c r="D28" t="s">
+        <v>77</v>
+      </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2446,7 +4041,7 @@
         <v>76</v>
       </c>
       <c r="E29">
-        <v>62829</v>
+        <v>103932</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2460,10 +4055,10 @@
         <v>44603</v>
       </c>
       <c r="D30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E30">
-        <v>51354</v>
+        <v>77510</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2477,10 +4072,10 @@
         <v>44603</v>
       </c>
       <c r="D31" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E31">
-        <v>55122</v>
+        <v>88406</v>
       </c>
     </row>
   </sheetData>
@@ -2498,13 +4093,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>35</v>
@@ -2512,464 +4107,464 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B2">
-        <v>279461</v>
+        <v>190846</v>
       </c>
       <c r="C2">
-        <v>57683</v>
+        <v>81400</v>
       </c>
       <c r="D2">
-        <v>221778</v>
+        <v>109446</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B3">
-        <v>12765</v>
+        <v>9731</v>
       </c>
       <c r="C3">
-        <v>2368</v>
+        <v>3626</v>
       </c>
       <c r="D3">
-        <v>10397</v>
+        <v>6105</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B4">
-        <v>25937</v>
+        <v>12987</v>
       </c>
       <c r="C4">
-        <v>7955</v>
+        <v>6364</v>
       </c>
       <c r="D4">
-        <v>17982</v>
+        <v>6623</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B5">
-        <v>87061</v>
+        <v>42476</v>
       </c>
       <c r="C5">
-        <v>25678</v>
+        <v>19388</v>
       </c>
       <c r="D5">
-        <v>61383</v>
+        <v>23088</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B6">
-        <v>324231</v>
+        <v>137714</v>
       </c>
       <c r="C6">
-        <v>68487</v>
+        <v>59681</v>
       </c>
       <c r="D6">
-        <v>255744</v>
+        <v>78033</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B7">
-        <v>268435</v>
+        <v>156510</v>
       </c>
       <c r="C7">
-        <v>61309</v>
+        <v>65453</v>
       </c>
       <c r="D7">
-        <v>207126</v>
+        <v>91057</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B8">
-        <v>94757</v>
+        <v>85507</v>
       </c>
       <c r="C8">
-        <v>22200</v>
+        <v>37518</v>
       </c>
       <c r="D8">
-        <v>72557</v>
+        <v>47989</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B9">
-        <v>147297</v>
+        <v>94979</v>
       </c>
       <c r="C9">
-        <v>31820</v>
+        <v>37888</v>
       </c>
       <c r="D9">
-        <v>115477</v>
+        <v>57091</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B10">
-        <v>211048</v>
+        <v>129241</v>
       </c>
       <c r="C10">
-        <v>37555</v>
+        <v>53354</v>
       </c>
       <c r="D10">
-        <v>173493</v>
+        <v>75887</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B11">
-        <v>57757</v>
+        <v>20794</v>
       </c>
       <c r="C11">
-        <v>7400</v>
+        <v>9435</v>
       </c>
       <c r="D11">
-        <v>50357</v>
+        <v>11359</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B12">
-        <v>484367</v>
+        <v>439005</v>
       </c>
       <c r="C12">
-        <v>97532</v>
+        <v>177230</v>
       </c>
       <c r="D12">
-        <v>386835</v>
+        <v>261775</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B13">
-        <v>317719</v>
+        <v>210530</v>
       </c>
       <c r="C13">
-        <v>71595</v>
+        <v>79328</v>
       </c>
       <c r="D13">
-        <v>246124</v>
+        <v>131202</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B14">
-        <v>196840</v>
+        <v>113812</v>
       </c>
       <c r="C14">
-        <v>53502</v>
+        <v>41551</v>
       </c>
       <c r="D14">
-        <v>143338</v>
+        <v>72261</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B15">
-        <v>18019</v>
+        <v>11951</v>
       </c>
       <c r="C15">
-        <v>3922</v>
+        <v>5106</v>
       </c>
       <c r="D15">
-        <v>14097</v>
+        <v>6845</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16">
-        <v>209420</v>
+        <v>160987</v>
       </c>
       <c r="C16">
-        <v>47767</v>
+        <v>67340</v>
       </c>
       <c r="D16">
-        <v>161653</v>
+        <v>93647</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B17">
-        <v>296407</v>
+        <v>170459</v>
       </c>
       <c r="C17">
-        <v>66008</v>
+        <v>61383</v>
       </c>
       <c r="D17">
-        <v>230399</v>
+        <v>109076</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B18">
-        <v>7178</v>
+        <v>5883</v>
       </c>
       <c r="C18">
-        <v>1406</v>
+        <v>2294</v>
       </c>
       <c r="D18">
-        <v>5772</v>
+        <v>3589</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B19">
-        <v>53169</v>
+        <v>40848</v>
       </c>
       <c r="C19">
-        <v>9916</v>
+        <v>16428</v>
       </c>
       <c r="D19">
-        <v>43253</v>
+        <v>24420</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B20">
-        <v>178895</v>
+        <v>122766</v>
       </c>
       <c r="C20">
-        <v>34817</v>
+        <v>55907</v>
       </c>
       <c r="D20">
-        <v>144078</v>
+        <v>66859</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B21">
-        <v>137640</v>
+        <v>75369</v>
       </c>
       <c r="C21">
-        <v>35705</v>
+        <v>29896</v>
       </c>
       <c r="D21">
-        <v>101935</v>
+        <v>45473</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B22">
-        <v>10767</v>
+        <v>6808</v>
       </c>
       <c r="C22">
-        <v>1813</v>
+        <v>3330</v>
       </c>
       <c r="D22">
-        <v>8954</v>
+        <v>3478</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B23">
-        <v>708550</v>
+        <v>460835</v>
       </c>
       <c r="C23">
-        <v>144707</v>
+        <v>186776</v>
       </c>
       <c r="D23">
-        <v>563843</v>
+        <v>274059</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B24">
-        <v>676841</v>
+        <v>490250</v>
       </c>
       <c r="C24">
-        <v>143449</v>
+        <v>189884</v>
       </c>
       <c r="D24">
-        <v>533392</v>
+        <v>300366</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B25">
-        <v>313131</v>
+        <v>155178</v>
       </c>
       <c r="C25">
-        <v>67192</v>
+        <v>65823</v>
       </c>
       <c r="D25">
-        <v>245939</v>
+        <v>89355</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B26">
-        <v>15873</v>
+        <v>7474</v>
       </c>
       <c r="C26">
-        <v>3848</v>
+        <v>2664</v>
       </c>
       <c r="D26">
-        <v>12025</v>
+        <v>4810</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B27">
-        <v>327672</v>
+        <v>184297</v>
       </c>
       <c r="C27">
-        <v>66970</v>
+        <v>62789</v>
       </c>
       <c r="D27">
-        <v>260702</v>
+        <v>121508</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B28">
-        <v>202390</v>
+        <v>135050</v>
       </c>
       <c r="C28">
-        <v>37407</v>
+        <v>58497</v>
       </c>
       <c r="D28">
-        <v>164983</v>
+        <v>76553</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B29">
-        <v>22163</v>
+        <v>13690</v>
       </c>
       <c r="C29">
-        <v>4440</v>
+        <v>5957</v>
       </c>
       <c r="D29">
-        <v>17723</v>
+        <v>7733</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B30">
-        <v>10767</v>
+        <v>15577</v>
       </c>
       <c r="C30">
-        <v>2627</v>
+        <v>6956</v>
       </c>
       <c r="D30">
-        <v>8140</v>
+        <v>8621</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B31">
-        <v>57165</v>
+        <v>40182</v>
       </c>
       <c r="C31">
-        <v>9213</v>
+        <v>16021</v>
       </c>
       <c r="D31">
-        <v>47952</v>
+        <v>24161</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B32">
-        <v>480482</v>
+        <v>400488</v>
       </c>
       <c r="C32">
-        <v>107781</v>
+        <v>165575</v>
       </c>
       <c r="D32">
-        <v>372701</v>
+        <v>234913</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B33">
-        <v>19462</v>
+        <v>9472</v>
       </c>
       <c r="C33">
-        <v>7474</v>
+        <v>3663</v>
       </c>
       <c r="D33">
-        <v>11988</v>
+        <v>5809</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B34">
-        <v>108114</v>
+        <v>57387</v>
       </c>
       <c r="C34">
-        <v>24198</v>
+        <v>27491</v>
       </c>
       <c r="D34">
-        <v>83916</v>
+        <v>29896</v>
       </c>
     </row>
   </sheetData>
@@ -3332,4 +4927,1041 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="2">
+        <v>44636</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2">
+        <v>21537</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="2">
+        <v>44636</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3">
+        <v>34581</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="2">
+        <v>44636</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>100861</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44636</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>22636</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44636</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>8241191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="2">
+        <v>44636</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7">
+        <v>3436108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44636</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>37016</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="2">
+        <v>44636</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>1155940</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="2">
+        <v>44636</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>1050505</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="2">
+        <v>44636</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>7709261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="2">
+        <v>44636</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>971265</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="2">
+        <v>44636</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>4100060</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="2">
+        <v>44636</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2311880</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="2">
+        <v>44636</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>25058370</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="2">
+        <v>44636</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>876345</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" s="2">
+        <v>44636</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>809256</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="2">
+        <v>44636</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>267408</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" s="2">
+        <v>44636</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>25058370</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" s="2">
+        <v>44636</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>73645</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="2">
+        <v>44636</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2">
+        <v>21537</v>
+      </c>
+      <c r="F2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" s="2">
+        <v>44581</v>
+      </c>
+      <c r="H2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2">
+        <v>7901</v>
+      </c>
+      <c r="J2">
+        <v>13636</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="2">
+        <v>44636</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3">
+        <v>34581</v>
+      </c>
+      <c r="F3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3" s="2">
+        <v>44581</v>
+      </c>
+      <c r="H3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3">
+        <v>13330</v>
+      </c>
+      <c r="J3">
+        <v>21251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="2">
+        <v>44636</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>100861</v>
+      </c>
+      <c r="F4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G4" s="2">
+        <v>44581</v>
+      </c>
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4">
+        <v>33827</v>
+      </c>
+      <c r="J4">
+        <v>67034</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44636</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>22636</v>
+      </c>
+      <c r="F5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G5" s="2">
+        <v>44581</v>
+      </c>
+      <c r="H5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5">
+        <v>4719</v>
+      </c>
+      <c r="J5">
+        <v>17917</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44636</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>8241191</v>
+      </c>
+      <c r="F6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G6" s="2">
+        <v>44581</v>
+      </c>
+      <c r="H6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6">
+        <v>2155240</v>
+      </c>
+      <c r="J6">
+        <v>6085951</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="2">
+        <v>44636</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7">
+        <v>3436108</v>
+      </c>
+      <c r="F7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G7" s="2">
+        <v>44581</v>
+      </c>
+      <c r="H7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7">
+        <v>800387</v>
+      </c>
+      <c r="J7">
+        <v>2635721</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44636</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>37016</v>
+      </c>
+      <c r="F8" t="s">
+        <v>117</v>
+      </c>
+      <c r="G8" s="2">
+        <v>44581</v>
+      </c>
+      <c r="H8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8">
+        <v>12645</v>
+      </c>
+      <c r="J8">
+        <v>24371</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>117</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="2">
+        <v>44636</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>1155940</v>
+      </c>
+      <c r="F10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10" s="2">
+        <v>44581</v>
+      </c>
+      <c r="H10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10">
+        <v>331766</v>
+      </c>
+      <c r="J10">
+        <v>824174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="2">
+        <v>44636</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>1050505</v>
+      </c>
+      <c r="F11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" s="2">
+        <v>44581</v>
+      </c>
+      <c r="H11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11">
+        <v>213282</v>
+      </c>
+      <c r="J11">
+        <v>837223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="2">
+        <v>44636</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>7709261</v>
+      </c>
+      <c r="F12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" s="2">
+        <v>44581</v>
+      </c>
+      <c r="H12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12">
+        <v>1579026</v>
+      </c>
+      <c r="J12">
+        <v>6130235</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="2">
+        <v>44636</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>971265</v>
+      </c>
+      <c r="F13" t="s">
+        <v>117</v>
+      </c>
+      <c r="G13" s="2">
+        <v>44581</v>
+      </c>
+      <c r="H13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13">
+        <v>157555</v>
+      </c>
+      <c r="J13">
+        <v>813710</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="2">
+        <v>44636</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>4100060</v>
+      </c>
+      <c r="F14" t="s">
+        <v>117</v>
+      </c>
+      <c r="G14" s="2">
+        <v>44581</v>
+      </c>
+      <c r="H14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14">
+        <v>2313836</v>
+      </c>
+      <c r="J14">
+        <v>1786224</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="2">
+        <v>44636</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2311880</v>
+      </c>
+      <c r="F15" t="s">
+        <v>117</v>
+      </c>
+      <c r="G15" s="2">
+        <v>44581</v>
+      </c>
+      <c r="H15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15">
+        <v>663532</v>
+      </c>
+      <c r="J15">
+        <v>1648348</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="2">
+        <v>44636</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>25058370</v>
+      </c>
+      <c r="F16" t="s">
+        <v>117</v>
+      </c>
+      <c r="G16" s="2">
+        <v>44581</v>
+      </c>
+      <c r="H16" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16">
+        <v>7220995</v>
+      </c>
+      <c r="J16">
+        <v>17837375</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="2">
+        <v>44636</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>876345</v>
+      </c>
+      <c r="F17" t="s">
+        <v>117</v>
+      </c>
+      <c r="G17" s="2">
+        <v>44581</v>
+      </c>
+      <c r="H17" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17">
+        <v>323984</v>
+      </c>
+      <c r="J17">
+        <v>552361</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" s="2">
+        <v>44636</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>809256</v>
+      </c>
+      <c r="F18" t="s">
+        <v>117</v>
+      </c>
+      <c r="G18" s="2">
+        <v>44581</v>
+      </c>
+      <c r="H18" t="s">
+        <v>37</v>
+      </c>
+      <c r="I18">
+        <v>194914</v>
+      </c>
+      <c r="J18">
+        <v>614342</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="2">
+        <v>44636</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>267408</v>
+      </c>
+      <c r="F19" t="s">
+        <v>117</v>
+      </c>
+      <c r="G19" s="2">
+        <v>44581</v>
+      </c>
+      <c r="H19" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19">
+        <v>92106</v>
+      </c>
+      <c r="J19">
+        <v>175302</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" s="2">
+        <v>44636</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>25058370</v>
+      </c>
+      <c r="F20" t="s">
+        <v>117</v>
+      </c>
+      <c r="G20" s="2">
+        <v>44581</v>
+      </c>
+      <c r="H20" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20">
+        <v>7220995</v>
+      </c>
+      <c r="J20">
+        <v>17837375</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" s="2">
+        <v>44636</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>73645</v>
+      </c>
+      <c r="F21" t="s">
+        <v>117</v>
+      </c>
+      <c r="G21" s="2">
+        <v>44581</v>
+      </c>
+      <c r="H21" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21">
+        <v>30738</v>
+      </c>
+      <c r="J21">
+        <v>42907</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/allTest_DCE.xlsx
+++ b/allTest_DCE.xlsx
@@ -63,13 +63,21 @@
     <sheet name="odsCountMaxC prod_canodce" sheetId="54" r:id="rId54"/>
     <sheet name="ccsCompare prod_canodce" sheetId="55" r:id="rId55"/>
     <sheet name="dupODSchk prod_canodce" sheetId="56" r:id="rId56"/>
+    <sheet name="insCountMax prod_elationdce" sheetId="57" r:id="rId57"/>
+    <sheet name="insCountMaxC prod_elationdce" sheetId="58" r:id="rId58"/>
+    <sheet name="dupInsCheck prod_elationdce" sheetId="59" r:id="rId59"/>
+    <sheet name="acoXdupMonth prod_elationdce" sheetId="60" r:id="rId60"/>
+    <sheet name="odsCountMax prod_elationdce" sheetId="61" r:id="rId61"/>
+    <sheet name="odsCountMaxC prod_elationdce" sheetId="62" r:id="rId62"/>
+    <sheet name="ccsCompare prod_elationdce" sheetId="63" r:id="rId63"/>
+    <sheet name="dupODSchk prod_elationdce" sheetId="64" r:id="rId64"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3685" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4162" uniqueCount="131">
   <si>
     <t>tableName</t>
   </si>
@@ -457,6 +465,12 @@
   <si>
     <t>PROD_CANODCE_FE</t>
   </si>
+  <si>
+    <t>PROD_ELATIONDCE</t>
+  </si>
+  <si>
+    <t>PROD_ELATIONDCE_FE</t>
+  </si>
 </sst>
 </file>
 
@@ -22620,6 +22634,1082 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="2">
+        <v>44663</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2">
+        <v>2913</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="2">
+        <v>44663</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3">
+        <v>3808</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="2">
+        <v>44663</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>8325</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44663</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>4231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44663</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>741487</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="2">
+        <v>44663</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7">
+        <v>297931</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44663</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="2">
+        <v>44663</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>200080</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="2">
+        <v>44663</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>1154236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="2">
+        <v>44663</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>29568</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>129</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>129</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>129</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="2">
+        <v>44663</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>109654</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" s="2">
+        <v>44663</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>117646</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="2">
+        <v>44663</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>29084</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="2">
+        <v>44663</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2">
+        <v>2913</v>
+      </c>
+      <c r="F2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>2913</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="2">
+        <v>44663</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3">
+        <v>3808</v>
+      </c>
+      <c r="F3" t="s">
+        <v>130</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>3808</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="2">
+        <v>44663</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>8325</v>
+      </c>
+      <c r="F4" t="s">
+        <v>130</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>8325</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44663</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>4231</v>
+      </c>
+      <c r="F5" t="s">
+        <v>130</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>4231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44663</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>741487</v>
+      </c>
+      <c r="F6" t="s">
+        <v>130</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>741487</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="2">
+        <v>44663</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7">
+        <v>297931</v>
+      </c>
+      <c r="F7" t="s">
+        <v>130</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>297931</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44663</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>2427</v>
+      </c>
+      <c r="F8" t="s">
+        <v>130</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>130</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>130</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="2">
+        <v>44663</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>200080</v>
+      </c>
+      <c r="F11" t="s">
+        <v>130</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>200080</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="2">
+        <v>44663</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>1154236</v>
+      </c>
+      <c r="F12" t="s">
+        <v>130</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>1154236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="2">
+        <v>44663</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>29568</v>
+      </c>
+      <c r="F13" t="s">
+        <v>130</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>29568</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>129</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>130</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>129</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>130</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>129</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>130</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="2">
+        <v>44663</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>109654</v>
+      </c>
+      <c r="F17" t="s">
+        <v>130</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>109654</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" s="2">
+        <v>44663</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>117646</v>
+      </c>
+      <c r="F18" t="s">
+        <v>130</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>117646</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="2">
+        <v>44663</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>29084</v>
+      </c>
+      <c r="F19" t="s">
+        <v>130</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>29084</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>130</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>130</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J31"/>
@@ -23437,6 +24527,1836 @@
         <v>88406</v>
       </c>
       <c r="J31">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="2">
+        <v>44652</v>
+      </c>
+      <c r="D3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3">
+        <v>37180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="2">
+        <v>44652</v>
+      </c>
+      <c r="D4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4">
+        <v>341611</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44652</v>
+      </c>
+      <c r="D5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5">
+        <v>3670</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44652</v>
+      </c>
+      <c r="D6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6">
+        <v>160842</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="2">
+        <v>44652</v>
+      </c>
+      <c r="D7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7">
+        <v>662591</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44652</v>
+      </c>
+      <c r="D8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8">
+        <v>19580</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="2">
+        <v>44652</v>
+      </c>
+      <c r="D9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9">
+        <v>221408</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="2">
+        <v>44652</v>
+      </c>
+      <c r="D10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10">
+        <v>4277</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" t="s">
+        <v>129</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" t="s">
+        <v>129</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s">
+        <v>129</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" t="s">
+        <v>129</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" t="s">
+        <v>129</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="2">
+        <v>44652</v>
+      </c>
+      <c r="D19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19">
+        <v>43919</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" s="2">
+        <v>44652</v>
+      </c>
+      <c r="D21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21">
+        <v>1325182</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" t="s">
+        <v>129</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" t="s">
+        <v>129</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" t="s">
+        <v>129</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" t="s">
+        <v>129</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" t="s">
+        <v>129</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" t="s">
+        <v>129</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" t="s">
+        <v>129</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" s="2">
+        <v>44652</v>
+      </c>
+      <c r="D30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30">
+        <v>5429</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31" s="2">
+        <v>44652</v>
+      </c>
+      <c r="D31" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31">
+        <v>4224</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="2">
+        <v>44652</v>
+      </c>
+      <c r="D3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3">
+        <v>37180</v>
+      </c>
+      <c r="F3" t="s">
+        <v>130</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>37180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="2">
+        <v>44652</v>
+      </c>
+      <c r="D4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4">
+        <v>341611</v>
+      </c>
+      <c r="F4" t="s">
+        <v>130</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>341611</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44652</v>
+      </c>
+      <c r="D5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5">
+        <v>3670</v>
+      </c>
+      <c r="F5" t="s">
+        <v>130</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>3670</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44652</v>
+      </c>
+      <c r="D6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6">
+        <v>160842</v>
+      </c>
+      <c r="F6" t="s">
+        <v>130</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>160842</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="2">
+        <v>44652</v>
+      </c>
+      <c r="D7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7">
+        <v>662591</v>
+      </c>
+      <c r="F7" t="s">
+        <v>130</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>662591</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44652</v>
+      </c>
+      <c r="D8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8">
+        <v>19580</v>
+      </c>
+      <c r="F8" t="s">
+        <v>130</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>19580</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="2">
+        <v>44652</v>
+      </c>
+      <c r="D9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9">
+        <v>221408</v>
+      </c>
+      <c r="F9" t="s">
+        <v>130</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>221408</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="2">
+        <v>44652</v>
+      </c>
+      <c r="D10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10">
+        <v>4277</v>
+      </c>
+      <c r="F10" t="s">
+        <v>130</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>4277</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>130</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>130</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>130</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" t="s">
+        <v>129</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>130</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" t="s">
+        <v>129</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>130</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s">
+        <v>129</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>130</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" t="s">
+        <v>129</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>130</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" t="s">
+        <v>129</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>130</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="2">
+        <v>44652</v>
+      </c>
+      <c r="D19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19">
+        <v>43919</v>
+      </c>
+      <c r="F19" t="s">
+        <v>130</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>43919</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>130</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" s="2">
+        <v>44652</v>
+      </c>
+      <c r="D21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21">
+        <v>1325182</v>
+      </c>
+      <c r="F21" t="s">
+        <v>130</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>1325182</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" t="s">
+        <v>129</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>130</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>130</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" t="s">
+        <v>129</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>130</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" t="s">
+        <v>129</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>130</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" t="s">
+        <v>129</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>130</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" t="s">
+        <v>129</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>130</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" t="s">
+        <v>129</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>130</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" t="s">
+        <v>129</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>130</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" s="2">
+        <v>44652</v>
+      </c>
+      <c r="D30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30">
+        <v>5429</v>
+      </c>
+      <c r="F30" t="s">
+        <v>130</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>5429</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31" s="2">
+        <v>44652</v>
+      </c>
+      <c r="D31" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31">
+        <v>4224</v>
+      </c>
+      <c r="F31" t="s">
+        <v>130</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>4224</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2">
+        <v>36963</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4">
+        <v>4995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5">
+        <v>14319</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6">
+        <v>46583</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7">
+        <v>23606</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8">
+        <v>17020</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9">
+        <v>17612</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10">
+        <v>31783</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12">
+        <v>91686</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13">
+        <v>60828</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14">
+        <v>21719</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15">
+        <v>4366</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16">
+        <v>18685</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17">
+        <v>56610</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19">
+        <v>7511</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20">
+        <v>47619</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21">
+        <v>14208</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23">
+        <v>116069</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24">
+        <v>127872</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25">
+        <v>30229</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27">
+        <v>37333</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28">
+        <v>29452</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31">
+        <v>6919</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>114</v>
+      </c>
+      <c r="B32">
+        <v>63122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>115</v>
+      </c>
+      <c r="B33">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>116</v>
+      </c>
+      <c r="B34">
+        <v>14652</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" t="s">
+        <v>129</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" t="s">
+        <v>129</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" t="s">
+        <v>129</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" t="s">
+        <v>129</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" t="s">
+        <v>129</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" t="s">
+        <v>129</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" t="s">
+        <v>129</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" t="s">
+        <v>129</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" t="s">
+        <v>129</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" t="s">
+        <v>129</v>
+      </c>
+      <c r="D31">
         <v>0</v>
       </c>
     </row>
